--- a/hardware/manufacture/reDIP-SX-BOM.xlsx
+++ b/hardware/manufacture/reDIP-SX-BOM.xlsx
@@ -7,22 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="reDIP-sx-kicost. " sheetId="1" r:id="rId1"/>
+    <sheet name="reDIP-SX-kicost. " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="arrow_part_data">'reDIP-sx-kicost. '!$K$5:$O$38</definedName>
-    <definedName name="BoardQty">'reDIP-sx-kicost. '!$J$1</definedName>
-    <definedName name="digikey_part_data">'reDIP-sx-kicost. '!$P$5:$T$38</definedName>
-    <definedName name="farnell_part_data">'reDIP-sx-kicost. '!$U$5:$Y$38</definedName>
-    <definedName name="global_part_data">'reDIP-sx-kicost. '!$A$5:$J$38</definedName>
-    <definedName name="lcsc_part_data">'reDIP-sx-kicost. '!$Z$5:$AD$38</definedName>
-    <definedName name="mouser_part_data">'reDIP-sx-kicost. '!$AE$5:$AI$38</definedName>
-    <definedName name="newark_part_data">'reDIP-sx-kicost. '!$AJ$5:$AN$38</definedName>
-    <definedName name="PURCHASE_DESCRIPTION">'reDIP-sx-kicost. '!$J$41</definedName>
-    <definedName name="rs_part_data">'reDIP-sx-kicost. '!$AO$5:$AS$38</definedName>
-    <definedName name="tme_part_data">'reDIP-sx-kicost. '!$AT$5:$AX$38</definedName>
-    <definedName name="TotalCost">'reDIP-sx-kicost. '!$J$3</definedName>
-    <definedName name="USD_GBP">'reDIP-sx-kicost. '!$C$41</definedName>
+    <definedName name="arrow_part_data">'reDIP-SX-kicost. '!$K$5:$O$38</definedName>
+    <definedName name="BoardQty">'reDIP-SX-kicost. '!$J$1</definedName>
+    <definedName name="digikey_part_data">'reDIP-SX-kicost. '!$P$5:$T$38</definedName>
+    <definedName name="farnell_part_data">'reDIP-SX-kicost. '!$U$5:$Y$38</definedName>
+    <definedName name="global_part_data">'reDIP-SX-kicost. '!$A$5:$J$38</definedName>
+    <definedName name="lcsc_part_data">'reDIP-SX-kicost. '!$Z$5:$AD$38</definedName>
+    <definedName name="mouser_part_data">'reDIP-SX-kicost. '!$AE$5:$AI$38</definedName>
+    <definedName name="newark_part_data">'reDIP-SX-kicost. '!$AJ$5:$AN$38</definedName>
+    <definedName name="PURCHASE_DESCRIPTION">'reDIP-SX-kicost. '!$J$41</definedName>
+    <definedName name="rs_part_data">'reDIP-SX-kicost. '!$AO$5:$AS$38</definedName>
+    <definedName name="tme_part_data">'reDIP-SX-kicost. '!$AT$5:$AX$38</definedName>
+    <definedName name="TotalCost">'reDIP-SX-kicost. '!$J$3</definedName>
+    <definedName name="USD_GBP">'reDIP-SX-kicost. '!$C$41</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -883,8 +883,7 @@
   1800   $0.79  $1,425.83
   3600   $0.74  $2,655.04
   5400   $0.71  $3,835.03
- 12600   $0.68  $8,604.29
- 45000   $0.67 $30,237.75</t>
+ 12600   $0.68  $8,604.16</t>
         </r>
       </text>
     </comment>
@@ -901,16 +900,16 @@
   Qty  -  Unit£  -  Ext£
 ================
      1   £1.10      £1.10
-    10   £1.10     £11.00
+    10   £1.04     £10.40
     50   £1.01     £50.50
-   100   £0.87     £87.20
+   100   £0.83     £83.20
    250   £0.76    £191.25
    500   £0.59    £294.00
   1000   £0.68    £676.00
   1800   £0.62  £1,108.80
   2500   £0.57  £1,430.00
   4500   £0.57  £2,565.00
-  9000   £0.60  £5,436.00
+  9000   £0.57  £5,112.00
  45000   £0.57 £25,470.00</t>
         </r>
       </text>
@@ -968,6 +967,22 @@
             <family val="2"/>
           </rPr>
           <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+  1800   $0.83  $1,493.17</t>
         </r>
       </text>
     </comment>
@@ -1005,11 +1020,7 @@
   2500   $0.06    $139.15
   5000   $0.05    $253.00
  10000   $0.05    $480.70
- 20000   $0.05    $910.80
- 30000   $0.04  $1,290.30
- 50000   $0.04  $2,024.00
-100000   $0.03  $3,416.00
-250000   $0.03  $7,590.00</t>
+ 20000   $0.05    $910.80</t>
         </r>
       </text>
     </comment>
@@ -1038,14 +1049,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.11      £1.08
-   100   £0.06      £6.19
-   150   £0.06      £9.28
-   500   £0.05     £23.55
-  2500   £0.04     £87.50
-  5000   £0.03    £144.50
- 10000   £0.02    £241.00
- 50000   £0.02  £1,030.00</t>
+    10   £0.10      £1.05
+   100   £0.06      £6.00
+   150   £0.06      £9.00
+   500   £0.05     £22.80
+  2500   £0.03     £84.50
+  5000   £0.03    £140.00
+ 10000   £0.02    £233.00
+ 50000   £0.02  £1,000.00</t>
         </r>
       </text>
     </comment>
@@ -1061,12 +1072,25 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.06      $0.59
-   100   $0.05      $4.53
-   300   $0.04     $12.87
-  1000   $0.04     $40.40
-  5000   $0.04    $196.50
- 10000   $0.04    $388.00</t>
+    10   $0.07      $0.65
+   100   $0.05      $5.12
+   300   $0.05     $14.58
+  1000   $0.05     $46.00
+  5000   $0.04    $224.50
+ 10000   $0.04    $443.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1117,10 +1141,9 @@
   Qty  -  Unit$  -  Ext$
 ================
     10   $0.17      $1.74
-    25   $0.15      $3.85
-    50   $0.09      $4.70
-   100   $0.08      $7.60
-   250   $0.06     $16.00</t>
+    25   $0.15      $3.72
+    50   $0.12      $6.20
+   100   $0.10      $9.90</t>
         </r>
       </text>
     </comment>
@@ -1145,10 +1168,7 @@
   2500   $0.06    $137.50
   5000   $0.05    $254.40
  15000   $0.05    $684.75
- 30000   $0.04  $1,320.00
- 75000   $0.04  $3,093.75
-105000   $0.04  $3,826.20
-375000   $0.03 $12,888.75</t>
+ 30000   $0.04  $1,320.00</t>
         </r>
       </text>
     </comment>
@@ -1177,14 +1197,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.30      £3.00
-   100   £0.18     £17.80
-   150   £0.18     £26.70
-   500   £0.15     £75.50
-  2500   £0.08    £202.50
-  7500   £0.07    £502.50
- 15000   £0.07    £976.50
- 75000   £0.06  £4,185.00</t>
+    10   £0.24      £2.36
+   100   £0.15     £14.80
+   150   £0.15     £22.20
+   500   £0.11     £55.50
+  2500   £0.08    £196.75
+  7500   £0.07    £492.00
+ 15000   £0.06    £945.00
+ 75000   £0.05  £4,050.00</t>
         </r>
       </text>
     </comment>
@@ -1200,12 +1220,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    20   $0.02      $0.37
-   200   $0.01      $2.74
-   600   $0.01      $7.74
-  2000   $0.01     $24.00
- 10000   $0.01    $117.00
- 20000   $0.01    $230.00</t>
+    20   $0.02      $0.42
+   200   $0.02      $3.22
+   600   $0.02      $9.18
+  2000   $0.01     $28.80
+ 10000   $0.01    $141.00
+ 20000   $0.01    $278.00</t>
         </r>
       </text>
     </comment>
@@ -1283,24 +1303,7 @@
   2500   $0.01     $14.45
   5000   $0.01     $26.55
  15000   $0.00     $69.30
- 30000   $0.00    $131.70
- 75000   $0.00    $294.75
-105000   $0.00    $333.90
-150000   $0.00    $460.50
-375000   $0.00  $1,083.75</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+ 30000   $0.00    $131.70</t>
         </r>
       </text>
     </comment>
@@ -1316,35 +1319,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.01      £0.07
-   100   £0.01      £0.54
-   150   £0.01      £0.81
-   500   £0.00      £2.05
-  2500   £0.00      £7.25
-  7500   £0.00     £19.50
- 15000   £0.00     £33.00
- 75000   £0.00    £127.50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-   100   $0.00      $0.21
-  1000   $0.00      $1.60
-  3000   $0.00      $4.80
- 10000   $0.00     $15.00
- 50000   $0.00     $70.00
-100000   $0.00    $140.00</t>
+    10   £0.01      £0.06
+   100   £0.01      £0.57
+   150   £0.01      £0.86
+   500   £0.00      £2.50
+  2500   £0.00      £7.00
+  7500   £0.00     £18.75
+ 15000   £0.00     £31.50
+ 75000   £0.00    £120.00</t>
         </r>
       </text>
     </comment>
@@ -1366,19 +1348,6 @@
    100   $0.01      $1.10
   1000   $0.01      $6.00
  10000   $0.00     $50.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1422,11 +1391,20 @@
   2500   $0.11    $264.32
   5000   $0.10    $499.30
  10000   $0.09    $939.80
- 20000   $0.09  $1,821.00
- 30000   $0.09  $2,643.30
- 50000   $0.08  $4,112.00
-100000   $0.08  $7,636.00
-250000   $0.07 $18,357.50</t>
+ 20000   $0.09  $1,821.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1442,14 +1420,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.22      £2.15
-   100   £0.17     £17.30
-   150   £0.17     £25.95
-   500   £0.10     £49.30
-  2500   £0.08    £205.50
-  5000   £0.07    £329.00
- 10000   £0.04    £355.00
- 50000   £0.03  £1,520.00</t>
+    10   £0.19      £1.92
+   100   £0.14     £13.70
+   150   £0.14     £20.55
+   500   £0.09     £43.20
+  2500   £0.08    £204.75
+  5000   £0.08    £387.00
+ 10000   £0.08    £751.00
+ 50000   £0.07  £3,260.00</t>
         </r>
       </text>
     </comment>
@@ -1465,12 +1443,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.11      $0.53
-    50   $0.08      $3.94
-   150   $0.07     $11.08
-   500   $0.07     $34.50
-  2500   $0.07    $167.00
-  5000   $0.07    $328.50</t>
+     5   $0.12      $0.58
+    50   $0.09      $4.32
+   150   $0.08     $12.15
+   500   $0.08     $37.85
+  2500   $0.07    $183.25
+  5000   $0.07    $361.00</t>
         </r>
       </text>
     </comment>
@@ -1495,6 +1473,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AL11" authorId="0">
       <text>
         <r>
@@ -1526,20 +1517,16 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.19      $0.19
-    10   $0.13      $1.27
-    50   $0.08      $3.80
-   100   $0.06      $6.42
-   500   $0.04     $21.98
-  1000   $0.04     $38.89
-  2500   $0.04     $93.00
-  5000   $0.03    $169.05
+     1   $0.18      $0.18
+    10   $0.12      $1.24
+    50   $0.07      $3.71
+   100   $0.06      $6.27
+   500   $0.04     $21.45
+  1000   $0.04     $37.95
+  2500   $0.04     $90.75
+  5000   $0.03    $165.00
  10000   $0.03    $313.50
- 20000   $0.03    $594.00
- 30000   $0.03    $841.50
- 50000   $0.03  $1,320.00
-100000   $0.02  $2,228.00
-250000   $0.02  $5,157.50</t>
+ 20000   $0.03    $594.00</t>
         </r>
       </text>
     </comment>
@@ -1568,14 +1555,14 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    10   £0.20      £2.02
-   100   £0.11     £11.10
-   150   £0.11     £16.65
-   500   £0.07     £34.50
-  2500   £0.05    £135.00
-  5000   £0.04    £215.00
- 10000   £0.03    £348.00
- 50000   £0.03  £1,490.00</t>
+    10   £0.16      £1.57
+   100   £0.09      £8.97
+   150   £0.09     £13.46
+   500   £0.07     £34.15
+  2500   £0.05    £126.50
+  5000   £0.04    £209.50
+ 10000   £0.03    £349.00
+ 50000   £0.03  £1,495.00</t>
         </r>
       </text>
     </comment>
@@ -1591,25 +1578,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    10   $0.06      $0.59
-   100   $0.04      $4.34
-   300   $0.04     $12.15
-  1000   $0.04     $37.60
-  5000   $0.04    $181.50
- 10000   $0.04    $357.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+    10   $0.06      $0.63
+   100   $0.05      $4.76
+   300   $0.04     $13.41
+  1000   $0.04     $41.70
+  5000   $0.04    $202.50
+ 10000   $0.04    $398.00</t>
         </r>
       </text>
     </comment>
@@ -1625,12 +1599,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.19      $0.19
-    10   $0.08      $0.76
-    50   $0.08      $3.80
-   100   $0.06      $6.50
-  1000   $0.04     $39.00
- 10000   $0.03    $310.00</t>
+     1   $0.18      $0.18
+    10   $0.08      $0.75
+    50   $0.08      $3.75
+   100   $0.06      $6.30
+  1000   $0.04     $38.00
+ 10000   $0.03    $290.00</t>
         </r>
       </text>
     </comment>
@@ -1689,11 +1663,7 @@
   2500   $0.01     $18.55
   5000   $0.01     $34.15
  15000   $0.01     $89.10
- 30000   $0.01    $169.20
- 75000   $0.01    $378.75
-105000   $0.00    $428.40
-150000   $0.00    $592.50
-375000   $0.00  $1,391.25</t>
+ 30000   $0.01    $169.20</t>
         </r>
       </text>
     </comment>
@@ -1732,12 +1702,25 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.01      $0.26
-   500   $0.00      $1.95
-  1500   $0.00      $5.55
-  5000   $0.00     $17.50
- 25000   $0.00     $85.00
- 50000   $0.00    $170.00</t>
+    50   $0.01      $0.32
+   500   $0.00      $2.45
+  1500   $0.00      $7.05
+  5000   $0.00     $22.00
+ 25000   $0.00    $107.50
+ 50000   $0.00    $210.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -1754,24 +1737,11 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.03      $0.34
-    50   $0.03      $1.70
+    10   $0.02      $0.18
+    50   $0.02      $0.90
    100   $0.02      $1.50
-  1000   $0.01      $8.00
- 10000   $0.01     $70.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+  1000   $0.01      $9.00
+ 10000   $0.01     $60.00</t>
         </r>
       </text>
     </comment>
@@ -1830,33 +1800,12 @@
     10   $0.24      $2.36
    100   $0.12     $11.91
    500   $0.10     $48.59
-  1000   $0.07     $72.11
+  1000   $0.07     $72.10
   2000   $0.06    $121.32
   5000   $0.06    $290.00
  10000   $0.05    $501.60
  30000   $0.05  $1,476.60
  50000   $0.04  $2,062.50</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-     5   £0.32      £1.60
-    10   £0.21      £2.09
-   100   £0.10     £10.50
-   500   £0.08     £39.90
-  1000   £0.05     £48.30
-  5000   £0.05    £236.50</t>
         </r>
       </text>
     </comment>
@@ -1881,6 +1830,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AJ14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AL14" authorId="0">
       <text>
         <r>
@@ -1893,16 +1855,84 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.36      $1.79
-    10   $0.28      $2.75
-   100   $0.15     $15.30
-   500   $0.14     $67.50
-  1000   $0.12    $117.00
-  2500   $0.10    $255.00</t>
+     5   $0.36      $1.80
+    10   $0.28      $2.76
+   100   $0.15     $15.40
+   500   $0.14     $68.00
+  1000   $0.12    $118.00
+  2500   $0.10    $257.50</t>
         </r>
       </text>
     </comment>
     <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.60      $0.60
+    10   $0.52      $5.17
+   100   $0.36     $35.78
+   500   $0.30    $149.46
+  1000   $0.25    $254.40
+  3000   $0.23    $679.71
+  6000   $0.21  $1,287.90
+  9000   $0.21  $1,890.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     5   £0.51      £2.56
+    10   £0.37      £3.72
+   100   £0.26     £26.00
+   150   £0.26     £39.00
+   500   £0.19     £96.00
+  3000   £0.16    £486.00
+  9000   £0.16  £1,404.00
+ 24000   £0.15  £3,672.00
+ 45000   £0.15  £6,750.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.43      $0.43
+    10   $0.33      $3.28
+    30   $0.31      $9.31
+   100   $0.29     $29.22
+   500   $0.28    $141.60
+  1000   $0.28    $279.60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1916,62 +1946,14 @@
 ================
      1   $0.56      $0.56
     10   $0.49      $4.88
-   100   $0.34     $33.75
-   500   $0.28    $141.00
+    50   $0.49     $24.40
+   100   $0.34     $33.80
   1000   $0.24    $240.00
-  3000   $0.21    $641.25
-  6000   $0.20  $1,215.00
-  9000   $0.19  $1,687.50
- 30000   $0.18  $5,535.00
- 75000   $0.18 $13,500.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-     5   £0.50      £2.52
-    10   £0.41      £4.07
-   100   £0.19     £18.80
-   150   £0.19     £28.20
-  3000   £0.16    £477.00
-  9000   £0.15  £1,377.00
- 24000   £0.15  £3,600.00
- 45000   £0.15  £6,615.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AB15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.49      $0.49
-    10   $0.37      $3.73
-    30   $0.35     $10.55
-   100   $0.33     $33.00
-   500   $0.32    $159.60
-  1000   $0.32    $315.60</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG15" authorId="0">
+ 10000   $0.19  $1,870.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1984,30 +1966,9 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.56      $0.56
-    10   $0.46      $4.64
-    50   $0.46     $23.20
-   100   $0.32     $32.50
-  1000   $0.24    $240.00
- 10000   $0.19  $1,930.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.56      $0.56
-    10   $0.46      $4.64
-   100   $0.32     $32.50
-   500   $0.28    $140.50
+    10   $0.50      $4.95
+   100   $0.34     $33.70
+   500   $0.28    $141.00
   3000   $0.22    $672.00
   9000   $0.19  $1,737.00
  24000   $0.19  $4,488.00
@@ -2027,12 +1988,11 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    25   £0.35      £8.67
-   100   £0.23     £22.70
-   250   £0.20     £51.00
-   500   £0.20     £97.50
-  1000   £0.17    £167.00
-  3000   £0.17    £501.00</t>
+    25   £0.35      £8.85
+   100   £0.25     £24.80
+   500   £0.21    £107.00
+  1000   £0.18    £183.00
+  3000   £0.17    £513.00</t>
         </r>
       </text>
     </comment>
@@ -2055,7 +2015,7 @@
   2000   $0.21    $429.30
   6000   $0.20  $1,202.04
  10000   $0.19  $1,931.90
- 50000   $0.18  $9,122.50</t>
+ 50000   $0.19  $9,450.00</t>
         </r>
       </text>
     </comment>
@@ -2125,16 +2085,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+    <comment ref="AV16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.80      $0.80
+     5   $0.36      $1.80
+    25   $0.28      $7.00
+   100   $0.24     $23.80
+   500   $0.22    $108.50</t>
         </r>
       </text>
     </comment>
@@ -2197,7 +2164,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £5.57      £5.57
+     1 £1,297.25  £1,297.25
      4   £5.31     £21.24
     20   £5.04    £100.80
    100   £4.78    £478.00
@@ -2358,11 +2325,11 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     5   $0.35      $1.76
-    10   $0.24      $2.41
-   100   $0.10     $10.10
-   500   $0.08     $42.50
-  1000   $0.07     $68.00</t>
+     5   $0.39      $1.95
+    10   $0.27      $2.68
+   100   $0.11     $11.20
+   500   $0.09     $47.00
+  1000   $0.08     $76.00</t>
         </r>
       </text>
     </comment>
@@ -2435,11 +2402,11 @@
    100   $0.01      $1.00
    250   $0.01      $1.91
    500   $0.01      $3.06
-  1000   $0.00      $4.51
+  1000   $0.00      $4.50
   5000   $0.00     $16.15
  15000   $0.00     $42.15
  30000   $0.00     $74.10
- 75000   $0.00    $173.25</t>
+ 75000   $0.00    $169.50</t>
         </r>
       </text>
     </comment>
@@ -2462,7 +2429,7 @@
   2500   £0.01     £30.00
   7500   £0.01     £67.50
  15000   £0.01    £105.00
- 75000   £0.00    £330.00</t>
+ 75000   £0.00    £352.50</t>
         </r>
       </text>
     </comment>
@@ -2478,12 +2445,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.01      $0.32
-   500   $0.00      $2.40
-  1500   $0.00      $6.75
-  5000   $0.00     $21.00
- 25000   $0.00    $102.50
- 50000   $0.00    $200.00</t>
+    50   $0.01      $0.35
+   500   $0.01      $2.70
+  1500   $0.01      $7.65
+  5000   $0.00     $24.00
+ 25000   $0.00    $117.50
+ 50000   $0.00    $235.00</t>
         </r>
       </text>
     </comment>
@@ -2544,7 +2511,7 @@
   Qty  -  Unit£  -  Ext£
 ================
   1000   £0.00      £4.00
- 15000   £0.00     £60.00</t>
+ 15000   £0.00     £75.00</t>
         </r>
       </text>
     </comment>
@@ -2561,14 +2528,15 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.02      $0.25
-   100   $0.01      $1.00
-  1000   $0.00      $4.51
-  2500   $0.00      $9.78
-  5000   $0.00     $16.15
- 15000   $0.00     $42.15
- 30000   $0.00     $74.10
- 75000   $0.00    $173.25</t>
+    10   $0.03      $0.27
+   100   $0.01      $1.10
+  1000   $0.00      $4.96
+  2500   $0.00     $10.75
+  5000   $0.00     $17.75
+ 15000   $0.00     $46.35
+ 30000   $0.00     $81.30
+ 75000   $0.00    $186.75
+105000   $0.00    $256.20</t>
         </r>
       </text>
     </comment>
@@ -2597,7 +2565,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 15000   £0.00     £64.50</t>
+ 30000   £0.00    £147.00</t>
         </r>
       </text>
     </comment>
@@ -2667,14 +2635,15 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.02      $0.25
-   100   $0.01      $1.00
-  1000   $0.00      $4.51
-  2500   $0.00      $9.78
-  5000   $0.00     $16.15
- 15000   $0.00     $42.15
- 30000   $0.00     $74.10
- 75000   $0.00    $173.25</t>
+    10   $0.03      $0.27
+   100   $0.01      $1.10
+  1000   $0.00      $4.96
+  2500   $0.00     $10.75
+  5000   $0.00     $17.75
+ 15000   $0.00     $46.35
+ 30000   $0.00     $81.30
+ 75000   $0.00    $186.75
+105000   $0.00    $256.20</t>
         </r>
       </text>
     </comment>
@@ -2703,7 +2672,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 15000   £0.00     £75.00</t>
+ 30000   £0.00    £150.00</t>
         </r>
       </text>
     </comment>
@@ -2770,10 +2739,10 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-  1000   £0.00      £5.00
+  1000   £0.00      £4.00
   5000   £0.00     £25.00
  10000   £0.00     £50.00
- 15000   £0.00     £75.00</t>
+ 15000   £0.00     £60.00</t>
         </r>
       </text>
     </comment>
@@ -2790,14 +2759,15 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.02      $0.25
-   100   $0.01      $1.00
-  1000   $0.00      $4.51
-  2500   $0.00      $9.78
-  5000   $0.00     $16.15
- 15000   $0.00     $42.15
- 30000   $0.00     $74.10
- 75000   $0.00    $173.25</t>
+    10   $0.03      $0.27
+   100   $0.01      $1.10
+  1000   $0.00      $4.96
+  2500   $0.00     $10.75
+  5000   $0.00     $17.75
+ 15000   $0.00     $46.35
+ 30000   $0.00     $81.30
+ 75000   $0.00    $186.75
+105000   $0.00    $256.20</t>
         </r>
       </text>
     </comment>
@@ -2826,7 +2796,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 15000   £0.00     £64.50</t>
+ 30000   £0.00    £147.00</t>
         </r>
       </text>
     </comment>
@@ -2842,12 +2812,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-    50   $0.02      $0.96
-   500   $0.01      $7.30
-  1500   $0.01     $20.70
-  5000   $0.01     $64.50
- 25000   $0.01    $315.00
- 50000   $0.01    $620.00</t>
+    50   $0.02      $1.00
+   500   $0.02      $7.70
+  1500   $0.01     $21.90
+  5000   $0.01     $69.00
+ 25000   $0.01    $335.00
+ 50000   $0.01    $660.00</t>
         </r>
       </text>
     </comment>
@@ -2917,14 +2887,15 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.02      $0.25
-   100   $0.01      $1.00
-  1000   $0.00      $4.51
-  2500   $0.00      $9.78
-  5000   $0.00     $16.15
- 15000   $0.00     $42.15
- 30000   $0.00     $74.10
- 75000   $0.00    $173.25</t>
+    10   $0.03      $0.27
+   100   $0.01      $1.10
+  1000   $0.00      $4.96
+  2500   $0.00     $10.75
+  5000   $0.00     $17.75
+ 15000   $0.00     $46.35
+ 30000   $0.00     $81.30
+ 75000   $0.00    $186.75
+105000   $0.00    $256.20</t>
         </r>
       </text>
     </comment>
@@ -2953,7 +2924,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 15000   £0.00     £64.50</t>
+ 30000   £0.00    £147.00</t>
         </r>
       </text>
     </comment>
@@ -3004,14 +2975,15 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.10      $0.10
-    10   $0.02      $0.25
-   100   $0.01      $1.00
-  1000   $0.00      $4.51
-  2500   $0.00      $9.78
-  5000   $0.00     $16.15
- 15000   $0.00     $42.15
- 30000   $0.00     $74.10
- 75000   $0.00    $173.25</t>
+    10   $0.03      $0.27
+   100   $0.01      $1.10
+  1000   $0.00      $4.96
+  2500   $0.00     $10.75
+  5000   $0.00     $17.75
+ 15000   $0.00     $46.35
+ 30000   $0.00     $81.30
+ 75000   $0.00    $186.75
+105000   $0.00    $256.20</t>
         </r>
       </text>
     </comment>
@@ -3040,7 +3012,7 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
- 15000   £0.00     £64.50</t>
+ 30000   £0.00    £147.00</t>
         </r>
       </text>
     </comment>
@@ -3143,7 +3115,7 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-  3000   $0.10    $297.54</t>
+  3000   $0.12    $367.71</t>
         </r>
       </text>
     </comment>
@@ -3188,12 +3160,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.45      $0.45
-    10   $0.30      $3.03
-    50   $0.30     $15.15
-   100   $0.14     $14.30
-  1000   $0.11    $110.00
- 10000   $0.08    $850.00</t>
+     1   $0.43      $0.43
+    10   $0.32      $3.21
+    50   $0.32     $16.05
+   100   $0.16     $16.50
+  1000   $0.12    $119.00
+ 10000   $0.10    $990.00</t>
         </r>
       </text>
     </comment>
@@ -3210,7 +3182,152 @@
         </r>
       </text>
     </comment>
+    <comment ref="P29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+  2000   $1.14  $2,289.60</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.42      $1.42
+    10   $1.05     $10.50
+    30   $0.98     $29.48
+   100   $0.92     $91.61
+   500   $0.89    $442.75
+  1000   $0.87    $871.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $2.49      $2.49
+    10   $2.25     $22.50
+    50   $2.12    $106.00
+   100   $1.70    $170.00
+  1000   $1.15  $1,150.00
+ 10000   $1.10 $11,000.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.47      $0.47
+    10   $0.38      $3.80
+    25   $0.35      $8.68
+   100   $0.26     $25.84
+   250   $0.23     $58.54
+   500   $0.19     $96.90
+  1000   $0.15    $145.35
+  2500   $0.13    $333.10
+  5000   $0.13    $625.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.54      $0.54
+    10   $0.44      $4.38
+    25   $0.40     $10.03
+   100   $0.27     $27.05
+   250   $0.22     $55.97
+   500   $0.21    $102.61
+  1000   $0.15    $153.91
+  3000   $0.14    $433.74
+  6000   $0.14    $811.56
+ 15000   $0.12  $1,860.90
+ 30000   $0.12  $3,696.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (GBP):
+  Qty  -  Unit£  -  Ext£
+================
+     5   £0.42      £2.11
+    10   £0.28      £2.75
+   100   £0.14     £14.20
+   150   £0.14     £21.30
+   500   £0.10     £52.50
+  3000   £0.09    £274.20
+  9000   £0.09    £793.80
+ 24000   £0.09  £2,092.80
+ 45000   £0.09  £3,870.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3223,137 +3340,11 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $0.49      $0.49
-    10   $0.40      $4.00
-    25   $0.37      $9.14
-   100   $0.27     $27.20
-   250   $0.25     $61.63
-   500   $0.20    $102.00
-  1000   $0.15    $153.00
-  2500   $0.14    $350.63
-  5000   $0.13    $658.75
- 10000   $0.12  $1,232.50
- 25000   $0.11  $2,826.25
- 50000   $0.11  $5,440.00
-125000   $0.10 $13,068.75</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-  2000   $1.08  $2,160.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $2.36      $2.36
-    10   $2.00     $20.00
-    50   $2.00    $100.00
-   100   $1.71    $171.00
-  1000   $1.16  $1,160.00
- 10000   $1.03 $10,300.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.46      $0.46
-    10   $0.38      $3.76
-    25   $0.34      $8.60
-   100   $0.23     $23.20
-   250   $0.19     $48.00
-   500   $0.18     $88.00
-  1000   $0.13    $132.00
-  3000   $0.12    $372.00
-  6000   $0.12    $696.00
- 15000   $0.11  $1,620.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (GBP):
-  Qty  -  Unit£  -  Ext£
-================
-     5   £0.40      £2.01
-    10   £0.29      £2.94
-   100   £0.10     £10.00
-   150   £0.10     £15.00
-  3000   £0.09    £261.00
-  9000   £0.08    £756.00
- 24000   £0.08  £1,944.00
- 45000   £0.08  £3,555.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.46      $0.46
-    10   $0.34      $3.43
-    50   $0.34     $17.15
-   100   $0.18     $17.50
-  1000   $0.13    $131.00
- 10000   $0.11  $1,100.00</t>
+    10   $0.36      $3.64
+    50   $0.36     $18.20
+   100   $0.19     $18.60
+  1000   $0.14    $140.00
+ 10000   $0.12  $1,160.00</t>
         </r>
       </text>
     </comment>
@@ -3370,8 +3361,15 @@
   Qty  -  Unit$  -  Ext$
 ================
      5   $0.46      $2.30
-    10   $0.38      $3.76
-   100   $0.23     $23.20</t>
+    10   $0.34      $3.43
+   100   $0.18     $17.50
+  3000   $0.12    $345.00
+  6000   $0.11    $678.00
+ 12000   $0.11  $1,332.00
+ 18000   $0.11  $1,980.00
+ 24000   $0.11  $2,592.00
+ 30000   $0.11  $3,180.00
+300000   $0.10 $31,200.00</t>
         </r>
       </text>
     </comment>
@@ -3387,12 +3385,12 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-    18   £0.26      £4.63
-   180   £0.19     £34.92
-  1800   £0.10    £189.00
+    18   £0.26      £4.72
+   108   £0.13     £14.36
+  1008   £0.10    £100.80
   3000   £0.08    £255.00
- 18000   £0.09  £1,548.00
- 54000   £0.08  £4,536.00</t>
+  3006   £0.09    £261.52
+  9000   £0.08    £756.00</t>
         </r>
       </text>
     </comment>
@@ -3421,7 +3419,7 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-  5000   $0.16    $776.25</t>
+  5000   $0.18    $905.10</t>
         </r>
       </text>
     </comment>
@@ -3466,12 +3464,12 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.50      $0.50
-    10   $0.40      $4.02
-    50   $0.40     $20.10
-   100   $0.32     $32.10
-  1000   $0.20    $195.00
- 10000   $0.15  $1,500.00</t>
+     1   $0.55      $0.55
+    10   $0.44      $4.43
+    50   $0.44     $22.15
+   100   $0.36     $35.50
+  1000   $0.22    $216.00
+ 10000   $0.18  $1,770.00</t>
         </r>
       </text>
     </comment>
@@ -3500,11 +3498,8 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $3.21      $3.21
-    10   $2.88     $28.85
-    25   $2.73     $68.18
-   100   $2.42    $242.40
-  5000   $2.42 $12,120.00</t>
+     1   $3.40      $3.40
+    10   $3.33     $33.33</t>
         </r>
       </text>
     </comment>
@@ -3533,14 +3528,11 @@
           <t>Qty/Price Breaks (GBP):
   Qty  -  Unit£  -  Ext£
 ================
-     1   £2.76      £2.76
-    10   £2.07     £20.70
-    25   £1.95     £48.75
-    50   £1.83     £91.50
-   100   £1.71    £171.00
-   250   £1.53    £382.50
-   500   £1.47    £735.00
-  1000   £1.22  £1,220.00</t>
+     1   £3.21      £3.21
+    10   £2.72     £27.20
+    25   £2.56     £64.00
+    50   £2.40    £120.00
+   100   £2.25    £225.00</t>
         </r>
       </text>
     </comment>
@@ -3558,6 +3550,40 @@
       </text>
     </comment>
     <comment ref="AG33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $3.33      $3.33
+    10   $2.72     $27.20
+    50   $2.72    $136.00
+   100   $2.24    $224.00
+  1000   $1.61  $1,610.00
+ 10000   $1.53 $15,300.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3571,14 +3597,27 @@
 ================
      1   $3.21      $3.21
     10   $2.72     $27.20
-    50   $2.72    $136.00
+    25   $2.56     $64.00
+    50   $2.40    $120.00
    100   $2.24    $224.00
-  1000   $1.61  $1,610.00
- 10000   $1.51 $15,100.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AL33" authorId="0">
+   250   $2.01    $502.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3590,56 +3629,7 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $3.53      $3.53
-    10   $3.18     $31.80
-    25   $3.00     $75.00
-    50   $2.73    $136.50
-   100   $2.46    $246.00
-   250   $2.21    $552.50
-  5000   $1.48  $7,400.00
- 10000   $1.45 $14,500.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks (USD):
-  Qty  -  Unit$  -  Ext$
-================
-     1   $3.20      $3.20</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AE34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
+     1   $3.52      $3.52</t>
         </r>
       </text>
     </comment>
@@ -3677,6 +3667,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="AV34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (USD):
+  Qty  -  Unit$  -  Ext$
+================
+     1   $4.10      $4.10
+     5   $3.85     $19.25
+    25   $3.60     $90.00
+   100   $3.35    $335.00</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="P35" authorId="0">
       <text>
         <r>
@@ -3703,9 +3712,8 @@
   Qty  -  Unit$  -  Ext$
 ================
      1   $1.35      $1.35
-    25   $1.30     $32.61
-   100   $1.25    $125.43
-  1500   $1.18  $1,762.82</t>
+    25   $1.32     $32.90
+  1500   $1.32  $1,974.00</t>
         </r>
       </text>
     </comment>
@@ -3746,6 +3754,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AE35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AG35" authorId="0">
       <text>
         <r>
@@ -3792,11 +3813,11 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.75      $1.75
-    10   $1.63     $16.30
-    25   $1.52     $38.00
-    50   $1.42     $71.00
-   100   $1.32    $132.00</t>
+     1   $1.73      $1.73
+    10   $1.61     $16.10
+    25   $1.51     $37.75
+    50   $1.41     $70.50
+   100   $1.31    $131.00</t>
         </r>
       </text>
     </comment>
@@ -3812,14 +3833,15 @@
           <t>Qty/Price Breaks (USD):
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.62      $0.62
-    10   $0.54      $5.45
-    25   $0.51     $12.79
-   100   $0.39     $38.78
-   250   $0.33     $82.50
-   500   $0.31    $156.75
-  1000   $0.24    $239.25
-  3000   $0.22    $668.25</t>
+     1   $0.66      $0.66
+    10   $0.58      $5.77
+    25   $0.54     $13.55
+   100   $0.41     $41.10
+   250   $0.35     $87.45
+   500   $0.33    $166.16
+  1000   $0.25    $253.60
+  3000   $0.24    $708.33
+  6000   $0.23  $1,386.00</t>
         </r>
       </text>
     </comment>
@@ -3889,6 +3911,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="P37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R37" authorId="0">
       <text>
         <r>
@@ -3905,6 +3940,19 @@
     25   $5.25    $131.25
    100   $5.00    $500.50
   2000   $5.00 $10,010.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
         </r>
       </text>
     </comment>
@@ -4077,7 +4125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="325">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -4203,8 +4251,8 @@
     <t>GRM155R60J106ME15D</t>
   </si>
   <si>
-    <t>C5,C17: 3.3V DC
-C29: 1.2V DC</t>
+    <t>C29: 1.2V DC
+C5,C17: 3.3V DC</t>
   </si>
   <si>
     <t>C6-C10,C15,C16,C23,C25,C27,C28,C30-C33</t>
@@ -4219,8 +4267,8 @@
     <t>GRM033R60J224KE15D</t>
   </si>
   <si>
-    <t>C6-C9,C16,C23,C25,C27,C28,C30-C33: 3.3V DC DERATED TO 0.1uF
-C10,C15: 1.55V DC AUDIO DERATED TO 0.1uF</t>
+    <t>C10,C15: 1.55V DC AUDIO DERATED TO 0.1uF
+C6-C9,C16,C23,C25,C27,C28,C30-C33: 3.3V DC DERATED TO 0.1uF</t>
   </si>
   <si>
     <t>D1,D2</t>
@@ -4373,7 +4421,7 @@
     <t>ERJ-1GN0R00C</t>
   </si>
   <si>
-    <t>R12</t>
+    <t>R13</t>
   </si>
   <si>
     <t>22</t>
@@ -4397,7 +4445,7 @@
     <t>ERJ-1GNJ222C</t>
   </si>
   <si>
-    <t>R4,R10</t>
+    <t>R4,R10,R11</t>
   </si>
   <si>
     <t>10k</t>
@@ -4421,7 +4469,7 @@
     <t>ERJ-1GNJ512C</t>
   </si>
   <si>
-    <t>R9,R11</t>
+    <t>R9,R12</t>
   </si>
   <si>
     <t>100</t>
@@ -4448,6 +4496,21 @@
     <t>U10</t>
   </si>
   <si>
+    <t>SN74CBTD16211DGVR</t>
+  </si>
+  <si>
+    <t>IC BUS SWITCH WITH LEVEL SHIFTER TVSOP-56</t>
+  </si>
+  <si>
+    <t>Texas_TVSOP-56_4.4x11.3mm_P0.4mm</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
     <t>CBTD3306GT</t>
   </si>
   <si>
@@ -4460,21 +4523,6 @@
     <t>CBTD3306GT,115</t>
   </si>
   <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>SN74CBTD16211DGVR</t>
-  </si>
-  <si>
-    <t>IC BUS SWITCH WITH LEVEL SHIFTER TVSOP-56</t>
-  </si>
-  <si>
-    <t>Texas_TVSOP-56_4.4x11.3mm_P0.4mm</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -4511,7 +4559,7 @@
     <t>NXP</t>
   </si>
   <si>
-    <t>SGTL5000XNLA3R2</t>
+    <t>ALTERNATIVE PART #: SGTL5000XNLA3R2</t>
   </si>
   <si>
     <t>U5</t>
@@ -4607,7 +4655,7 @@
     <t>Prj:</t>
   </si>
   <si>
-    <t>reDIP sx</t>
+    <t>reDIP SX</t>
   </si>
   <si>
     <t>Co.:</t>
@@ -4619,7 +4667,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>sø. 17. jan. 2021 kl. 08.39 +0100</t>
+    <t>to. 04. mars 2021 kl. 15.51 +0100</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -4634,7 +4682,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2021-01-17 08:40:03</t>
+    <t>2021-03-04 15:51:31</t>
   </si>
   <si>
     <t>Arrow</t>
@@ -4724,19 +4772,19 @@
     <t>NCP163AMX120TBG-ND</t>
   </si>
   <si>
+    <t>296-6475-2-ND</t>
+  </si>
+  <si>
     <t>1727-4621-1-ND</t>
   </si>
   <si>
-    <t>296-6475-2-ND</t>
-  </si>
-  <si>
     <t>NCP167AMX330TBGOSCT-ND</t>
   </si>
   <si>
     <t>FSA221UMXTR-ND</t>
   </si>
   <si>
-    <t>568-13255-1-ND</t>
+    <t>SGTL5000XNLA3-ND</t>
   </si>
   <si>
     <t>1965-ESP32-PICO-V3-02-ND</t>
@@ -4775,9 +4823,6 @@
     <t>2990684</t>
   </si>
   <si>
-    <t>2191801</t>
-  </si>
-  <si>
     <t>2535917</t>
   </si>
   <si>
@@ -4814,7 +4859,7 @@
     <t>3614346</t>
   </si>
   <si>
-    <t>2776032</t>
+    <t>2308050</t>
   </si>
   <si>
     <t>3387002RL</t>
@@ -4832,9 +4877,6 @@
     <t>C385023</t>
   </si>
   <si>
-    <t>C161460</t>
-  </si>
-  <si>
     <t>C335103</t>
   </si>
   <si>
@@ -4856,6 +4898,9 @@
     <t>C713500</t>
   </si>
   <si>
+    <t>C2683750</t>
+  </si>
+  <si>
     <t>Mouser</t>
   </si>
   <si>
@@ -4928,7 +4973,7 @@
     <t>512FSA221UMX</t>
   </si>
   <si>
-    <t>841SGTL5000XNLA3R2</t>
+    <t>841SGTL5000XNLA3</t>
   </si>
   <si>
     <t>356ESP32PICOV302</t>
@@ -4988,7 +5033,7 @@
     <t>51W5827</t>
   </si>
   <si>
-    <t>51W5775</t>
+    <t>23AC4811</t>
   </si>
   <si>
     <t>51W5889</t>
@@ -5003,7 +5048,7 @@
     <t>84AC7230</t>
   </si>
   <si>
-    <t>31AC6932</t>
+    <t>14R9111</t>
   </si>
   <si>
     <t>66AH5403</t>
@@ -5846,35 +5891,35 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA5" s="11"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK5" s="13"/>
       <c r="AL5" s="13"/>
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
       <c r="AO5" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AP5" s="14"/>
       <c r="AQ5" s="14"/>
       <c r="AR5" s="14"/>
       <c r="AS5" s="14"/>
       <c r="AT5" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AU5" s="15"/>
       <c r="AV5" s="15"/>
@@ -6065,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="17">
-        <v>23046</v>
+        <v>13886</v>
       </c>
       <c r="R7" s="18">
-        <f>iferror(lookup(if(Q7="",H7,Q7),{0,1,10,25,100,250,500,1800,3600,5400,12600,45000},{0.0,1.61,1.448,1.3656,1.1636,1.0926,0.95602,0.79213,0.73751,0.71019,0.68288,0.67195}),"")</f>
+        <f>iferror(lookup(if(Q7="",H7,Q7),{0,1,10,25,100,250,500,1800,3600,5400,12600},{0.0,1.61,1.448,1.3656,1.1636,1.0926,0.95602,0.79213,0.73751,0.71019,0.68287}),"")</f>
         <v>0</v>
       </c>
       <c r="S7" s="18">
@@ -6079,10 +6124,10 @@
         <v>191</v>
       </c>
       <c r="U7" s="17">
-        <v>6955</v>
+        <v>6355</v>
       </c>
       <c r="W7" s="18">
-        <f>iferror(USD_GBP*lookup(if(V7="",H7,V7),{0,1,10,50,100,250,500,1000,1800,2500,4500,9000,45000},{0.0,1.1,1.1,1.01,0.872,0.765,0.588,0.676,0.616,0.572,0.57,0.604,0.566}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V7="",H7,V7),{0,1,10,50,100,250,500,1000,1800,2500,4500,9000,45000},{0.0,1.1,1.04,1.01,0.832,0.765,0.588,0.676,0.616,0.572,0.57,0.568,0.566}),"")</f>
         <v>0</v>
       </c>
       <c r="X7" s="18">
@@ -6093,7 +6138,7 @@
         <v>224</v>
       </c>
       <c r="AE7" s="17">
-        <v>10330</v>
+        <v>1402</v>
       </c>
       <c r="AG7" s="18">
         <f>iferror(lookup(if(AF7="",H7,AF7),{0,1,10,50,100,1000,10000},{0.0,1.61,1.37,1.37,1.1,0.757,0.682}),"")</f>
@@ -6104,16 +6149,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AJ7" s="17">
         <v>9000</v>
       </c>
       <c r="AN7" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AO7" s="17">
-        <v>7012</v>
+        <v>6962</v>
       </c>
       <c r="AQ7" s="18">
         <f>iferror(USD_GBP*lookup(if(AP7="",H7,AP7),{0,1,25,50,100,250,1800,3600},{0.0,1.28,1.09,0.96,0.83,0.77,0.544,0.53}),"")</f>
@@ -6124,13 +6169,21 @@
         <v>0</v>
       </c>
       <c r="AS7" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AT7" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="AV7" s="18">
+        <f>iferror(lookup(if(AU7="",H7,AU7),{0,1,1800},{0.0,0.82954,0.82954}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AW7" s="18">
+        <f>iferror(if(AU7="",H7,AU7)*AV7,"")</f>
+        <v>0</v>
+      </c>
       <c r="AX7" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -6171,7 +6224,7 @@
         <v>193</v>
       </c>
       <c r="R8" s="18">
-        <f>iferror(lookup(if(Q8="",H8,Q8),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.28,0.19,0.1138,0.0961,0.06578,0.05819,0.05566,0.0506,0.04807,0.04554,0.04301,0.04048,0.03416,0.03036}),"")</f>
+        <f>iferror(lookup(if(Q8="",H8,Q8),{0,1,10,50,100,500,1000,2500,5000,10000,20000},{0.0,0.28,0.19,0.1138,0.0961,0.06578,0.05819,0.05566,0.0506,0.04807,0.04554}),"")</f>
         <v>0</v>
       </c>
       <c r="S8" s="18">
@@ -6185,7 +6238,7 @@
         <v>193</v>
       </c>
       <c r="W8" s="18">
-        <f>iferror(USD_GBP*lookup(if(V8="",H8,V8),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.108,0.108,0.0619,0.0619,0.0471,0.035,0.0289,0.0241,0.0206}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V8="",H8,V8),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.105,0.105,0.06,0.06,0.0456,0.0338,0.028,0.0233,0.02}),"")</f>
         <v>0</v>
       </c>
       <c r="X8" s="18">
@@ -6196,10 +6249,10 @@
         <v>225</v>
       </c>
       <c r="Z8" s="17">
-        <v>9880</v>
+        <v>4280</v>
       </c>
       <c r="AB8" s="18">
-        <f>iferror(lookup(if(AA8="",H8,AA8),{0,1,10,100,300,1000,5000,10000},{0.0,0.0588,0.0588,0.0453,0.0429,0.0404,0.0393,0.0388}),"")</f>
+        <f>iferror(lookup(if(AA8="",H8,AA8),{0,1,10,100,300,1000,5000,10000},{0.0,0.0653,0.0653,0.0512,0.0486,0.046,0.0449,0.0443}),"")</f>
         <v>0</v>
       </c>
       <c r="AC8" s="18">
@@ -6207,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE8" s="17">
-        <v>7700</v>
+        <v>247</v>
+      </c>
+      <c r="AE8" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AG8" s="18">
         <f>iferror(lookup(if(AF8="",H8,AF8),{0,1,10,50,100,1000,10000},{0.0,0.26,0.174,0.174,0.099,0.061,0.043}),"")</f>
@@ -6221,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AJ8" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AL8" s="18">
-        <f>iferror(lookup(if(AK8="",H8,AK8),{0,1,10,25,50,100,250},{0.0,0.174,0.174,0.154,0.094,0.076,0.064}),"")</f>
+        <f>iferror(lookup(if(AK8="",H8,AK8),{0,1,10,25,50,100},{0.0,0.174,0.174,0.149,0.124,0.099}),"")</f>
         <v>0</v>
       </c>
       <c r="AM8" s="18">
@@ -6235,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -6273,10 +6326,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="17">
-        <v>3074867</v>
+        <v>1608714</v>
       </c>
       <c r="R9" s="18">
-        <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,375000},{0.0,0.24,0.165,0.11,0.0935,0.066,0.05775,0.055,0.05088,0.04565,0.044,0.04125,0.03644,0.03437}),"")</f>
+        <f>iferror(lookup(if(Q9="",H9,Q9),{0,1,10,50,100,500,1000,2500,5000,15000,30000},{0.0,0.24,0.165,0.11,0.0935,0.066,0.05775,0.055,0.05088,0.04565,0.044}),"")</f>
         <v>0</v>
       </c>
       <c r="S9" s="18">
@@ -6290,7 +6343,7 @@
         <v>193</v>
       </c>
       <c r="W9" s="18">
-        <f>iferror(USD_GBP*lookup(if(V9="",H9,V9),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.3,0.3,0.178,0.178,0.151,0.081,0.067,0.0651,0.0558}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V9="",H9,V9),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.236,0.236,0.148,0.148,0.111,0.0787,0.0656,0.063,0.054}),"")</f>
         <v>0</v>
       </c>
       <c r="X9" s="18">
@@ -6301,10 +6354,10 @@
         <v>226</v>
       </c>
       <c r="Z9" s="17">
-        <v>8320</v>
+        <v>4160</v>
       </c>
       <c r="AB9" s="18">
-        <f>iferror(lookup(if(AA9="",H9,AA9),{0,1,20,200,600,2000,10000,20000},{0.0,0.0183,0.0183,0.0137,0.0129,0.012,0.0117,0.0115}),"")</f>
+        <f>iferror(lookup(if(AA9="",H9,AA9),{0,1,20,200,600,2000,10000,20000},{0.0,0.0208,0.0208,0.0161,0.0153,0.0144,0.0141,0.0139}),"")</f>
         <v>0</v>
       </c>
       <c r="AC9" s="18">
@@ -6312,10 +6365,10 @@
         <v>0</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AE9" s="17">
-        <v>2264534</v>
+        <v>2238412</v>
       </c>
       <c r="AG9" s="18">
         <f>iferror(lookup(if(AF9="",H9,AF9),{0,1,10,50,100,1000,10000},{0.0,0.26,0.121,0.121,0.097,0.06,0.051}),"")</f>
@@ -6326,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AJ9" s="20" t="s">
         <v>193</v>
@@ -6340,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -6378,10 +6431,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="17">
-        <v>1366915</v>
+        <v>1156207</v>
       </c>
       <c r="R10" s="18">
-        <f>iferror(lookup(if(Q10="",H10,Q10),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,150000,375000},{0.0,0.1,0.025,0.0138,0.0113,0.00808,0.00635,0.00578,0.00531,0.00462,0.00439,0.00393,0.00318,0.00307,0.00289}),"")</f>
+        <f>iferror(lookup(if(Q10="",H10,Q10),{0,1,10,50,100,500,1000,2500,5000,15000,30000},{0.0,0.1,0.025,0.0138,0.0113,0.00808,0.00635,0.00578,0.00531,0.00462,0.00439}),"")</f>
         <v>0</v>
       </c>
       <c r="S10" s="18">
@@ -6391,11 +6444,11 @@
       <c r="T10" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="U10" s="20" t="s">
-        <v>193</v>
+      <c r="U10" s="17">
+        <v>60000</v>
       </c>
       <c r="W10" s="18">
-        <f>iferror(USD_GBP*lookup(if(V10="",H10,V10),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0066,0.0066,0.0054,0.0054,0.0041,0.0029,0.0026,0.0022,0.0017}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V10="",H10,V10),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0064,0.0064,0.0057,0.0057,0.005,0.0028,0.0025,0.0021,0.0016}),"")</f>
         <v>0</v>
       </c>
       <c r="X10" s="18">
@@ -6405,22 +6458,8 @@
       <c r="Y10" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="Z10" s="17">
-        <v>900</v>
-      </c>
-      <c r="AB10" s="18">
-        <f>iferror(lookup(if(AA10="",H10,AA10),{0,1,100,1000,3000,10000,50000,100000},{0.0,0.0021,0.0021,0.0016,0.0016,0.0015,0.0014,0.0014}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="18">
-        <f>iferror(if(AA10="",H10,AA10)*AB10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="19" t="s">
-        <v>250</v>
-      </c>
       <c r="AE10" s="17">
-        <v>201502</v>
+        <v>463372</v>
       </c>
       <c r="AG10" s="18">
         <f>iferror(lookup(if(AF10="",H10,AF10),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.006,0.005}),"")</f>
@@ -6431,10 +6470,10 @@
         <v>0</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ10" s="20" t="s">
-        <v>193</v>
+        <v>261</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>60000</v>
       </c>
       <c r="AL10" s="18">
         <f>iferror(lookup(if(AK10="",H10,AK10),{0,1,10,25,50,100},{0.0,0.015,0.015,0.01,0.007,0.005}),"")</f>
@@ -6445,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -6483,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="17">
-        <v>1014588</v>
+        <v>513868</v>
       </c>
       <c r="R11" s="18">
-        <f>iferror(lookup(if(Q11="",H11,Q11),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.42,0.294,0.2056,0.1762,0.13216,0.11161,0.10573,0.09986,0.09398,0.09105,0.08811,0.08224,0.07636,0.07343}),"")</f>
+        <f>iferror(lookup(if(Q11="",H11,Q11),{0,1,10,50,100,500,1000,2500,5000,10000,20000},{0.0,0.42,0.294,0.2056,0.1762,0.13216,0.11161,0.10573,0.09986,0.09398,0.09105}),"")</f>
         <v>0</v>
       </c>
       <c r="S11" s="18">
@@ -6496,11 +6535,11 @@
       <c r="T11" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="U11" s="17">
-        <v>2560</v>
+      <c r="U11" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="W11" s="18">
-        <f>iferror(USD_GBP*lookup(if(V11="",H11,V11),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.215,0.215,0.173,0.173,0.0986,0.0822,0.0658,0.0355,0.0304}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V11="",H11,V11),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.192,0.192,0.137,0.137,0.0864,0.0819,0.0774,0.0751,0.0652}),"")</f>
         <v>0</v>
       </c>
       <c r="X11" s="18">
@@ -6511,10 +6550,10 @@
         <v>228</v>
       </c>
       <c r="Z11" s="17">
-        <v>61745</v>
+        <v>61740</v>
       </c>
       <c r="AB11" s="18">
-        <f>iferror(lookup(if(AA11="",H11,AA11),{0,1,5,50,150,500,2500,5000},{0.0,0.1058,0.1058,0.0789,0.0739,0.069,0.0668,0.0657}),"")</f>
+        <f>iferror(lookup(if(AA11="",H11,AA11),{0,1,5,50,150,500,2500,5000},{0.0,0.115,0.115,0.0863,0.081,0.0757,0.0733,0.0722}),"")</f>
         <v>0</v>
       </c>
       <c r="AC11" s="18">
@@ -6522,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE11" s="17">
-        <v>926015</v>
+        <v>873332</v>
       </c>
       <c r="AG11" s="18">
         <f>iferror(lookup(if(AF11="",H11,AF11),{0,1,10,50,100,1000,10000},{0.0,0.47,0.227,0.227,0.194,0.123,0.11}),"")</f>
@@ -6536,10 +6575,10 @@
         <v>0</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ11" s="17">
-        <v>2560</v>
+        <v>262</v>
+      </c>
+      <c r="AJ11" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AL11" s="18">
         <f>iferror(lookup(if(AK11="",H11,AK11),{0,1,10,25,50,100},{0.0,0.227,0.227,0.216,0.205,0.194}),"")</f>
@@ -6550,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -6588,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="17">
-        <v>9562</v>
+        <v>266438</v>
       </c>
       <c r="R12" s="18">
-        <f>iferror(lookup(if(Q12="",H12,Q12),{0,1,10,50,100,500,1000,2500,5000,10000,20000,30000,50000,100000,250000},{0.0,0.19,0.127,0.076,0.0642,0.04396,0.03889,0.0372,0.03381,0.03135,0.0297,0.02805,0.0264,0.02228,0.02063}),"")</f>
+        <f>iferror(lookup(if(Q12="",H12,Q12),{0,1,10,50,100,500,1000,2500,5000,10000,20000},{0.0,0.18,0.124,0.0742,0.0627,0.0429,0.03795,0.0363,0.033,0.03135,0.0297}),"")</f>
         <v>0</v>
       </c>
       <c r="S12" s="18">
@@ -6605,7 +6644,7 @@
         <v>193</v>
       </c>
       <c r="W12" s="18">
-        <f>iferror(USD_GBP*lookup(if(V12="",H12,V12),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.202,0.202,0.111,0.111,0.069,0.054,0.043,0.0348,0.0298}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V12="",H12,V12),{0,1,10,100,150,500,2500,5000,10000,50000},{0.0,0.157,0.157,0.0897,0.0897,0.0683,0.0506,0.0419,0.0349,0.0299}),"")</f>
         <v>0</v>
       </c>
       <c r="X12" s="18">
@@ -6616,10 +6655,10 @@
         <v>229</v>
       </c>
       <c r="Z12" s="17">
-        <v>10500</v>
+        <v>90</v>
       </c>
       <c r="AB12" s="18">
-        <f>iferror(lookup(if(AA12="",H12,AA12),{0,1,10,100,300,1000,5000,10000},{0.0,0.0593,0.0593,0.0434,0.0405,0.0376,0.0363,0.0357}),"")</f>
+        <f>iferror(lookup(if(AA12="",H12,AA12),{0,1,10,100,300,1000,5000,10000},{0.0,0.0634,0.0634,0.0476,0.0447,0.0417,0.0405,0.0398}),"")</f>
         <v>0</v>
       </c>
       <c r="AC12" s="18">
@@ -6627,13 +6666,13 @@
         <v>0</v>
       </c>
       <c r="AD12" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>193</v>
+        <v>250</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>300465</v>
       </c>
       <c r="AG12" s="18">
-        <f>iferror(lookup(if(AF12="",H12,AF12),{0,1,10,50,100,1000,10000},{0.0,0.19,0.076,0.076,0.065,0.039,0.031}),"")</f>
+        <f>iferror(lookup(if(AF12="",H12,AF12),{0,1,10,50,100,1000,10000},{0.0,0.18,0.075,0.075,0.063,0.038,0.029}),"")</f>
         <v>0</v>
       </c>
       <c r="AH12" s="18">
@@ -6641,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AJ12" s="20" t="s">
         <v>193</v>
@@ -6655,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -6693,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="17">
-        <v>1084668</v>
+        <v>11631</v>
       </c>
       <c r="R13" s="18">
-        <f>iferror(lookup(if(Q13="",H13,Q13),{0,1,10,50,100,500,1000,2500,5000,15000,30000,75000,105000,150000,375000},{0.0,0.1,0.033,0.0178,0.0146,0.0104,0.00817,0.00742,0.00683,0.00594,0.00564,0.00505,0.00408,0.00395,0.00371}),"")</f>
+        <f>iferror(lookup(if(Q13="",H13,Q13),{0,1,10,50,100,500,1000,2500,5000,15000,30000},{0.0,0.1,0.033,0.0178,0.0146,0.0104,0.00817,0.00742,0.00683,0.00594,0.00564}),"")</f>
         <v>0</v>
       </c>
       <c r="S13" s="18">
@@ -6707,7 +6746,7 @@
         <v>198</v>
       </c>
       <c r="U13" s="17">
-        <v>823</v>
+        <v>588</v>
       </c>
       <c r="W13" s="18">
         <f>iferror(USD_GBP*lookup(if(V13="",H13,V13),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.0202,0.0202,0.0159,0.0159,0.0076,0.0059,0.0058,0.004,0.0039}),"")</f>
@@ -6721,10 +6760,10 @@
         <v>230</v>
       </c>
       <c r="Z13" s="17">
-        <v>40150</v>
+        <v>19600</v>
       </c>
       <c r="AB13" s="18">
-        <f>iferror(lookup(if(AA13="",H13,AA13),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0051,0.0051,0.0039,0.0037,0.0035,0.0034,0.0034}),"")</f>
+        <f>iferror(lookup(if(AA13="",H13,AA13),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0063,0.0063,0.0049,0.0047,0.0044,0.0043,0.0042}),"")</f>
         <v>0</v>
       </c>
       <c r="AC13" s="18">
@@ -6732,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE13" s="17">
-        <v>124900</v>
+        <v>251</v>
+      </c>
+      <c r="AE13" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AG13" s="18">
-        <f>iferror(lookup(if(AF13="",H13,AF13),{0,1,10,50,100,1000,10000},{0.0,0.1,0.034,0.034,0.015,0.008,0.007}),"")</f>
+        <f>iferror(lookup(if(AF13="",H13,AF13),{0,1,10,50,100,1000,10000},{0.0,0.1,0.018,0.018,0.015,0.009,0.006}),"")</f>
         <v>0</v>
       </c>
       <c r="AH13" s="18">
@@ -6746,10 +6785,10 @@
         <v>0</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ13" s="20" t="s">
-        <v>193</v>
+        <v>264</v>
+      </c>
+      <c r="AJ13" s="17">
+        <v>375</v>
       </c>
       <c r="AL13" s="18">
         <f>iferror(lookup(if(AK13="",H13,AK13),{0,1,10,25,50,100},{0.0,0.034,0.034,0.028,0.021,0.015}),"")</f>
@@ -6760,7 +6799,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AO13" s="17">
         <v>7000</v>
@@ -6774,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -6809,10 +6848,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="17">
-        <v>46293</v>
+        <v>44732</v>
       </c>
       <c r="R14" s="18">
-        <f>iferror(lookup(if(Q14="",H14,Q14),{0,1,10,100,500,1000,2000,5000,10000,30000,50000},{0.0,0.34,0.236,0.1191,0.09718,0.07211,0.06066,0.058,0.05016,0.04922,0.04125}),"")</f>
+        <f>iferror(lookup(if(Q14="",H14,Q14),{0,1,10,100,500,1000,2000,5000,10000,30000,50000},{0.0,0.34,0.236,0.1191,0.09718,0.0721,0.06066,0.058,0.05016,0.04922,0.04125}),"")</f>
         <v>0</v>
       </c>
       <c r="S14" s="18">
@@ -6822,22 +6861,8 @@
       <c r="T14" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="U14" s="17">
-        <v>1614</v>
-      </c>
-      <c r="W14" s="18">
-        <f>iferror(USD_GBP*lookup(if(V14="",H14,V14),{0,1,5,10,100,500,1000,5000},{0.0,0.32,0.32,0.209,0.105,0.0798,0.0483,0.0473}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="18">
-        <f>iferror(if(V14="",H14,V14)*W14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="AE14" s="17">
-        <v>9847</v>
+        <v>8068</v>
       </c>
       <c r="AG14" s="18">
         <f>iferror(lookup(if(AF14="",H14,AF14),{0,1,10,50,100,1000,10000},{0.0,0.35,0.231,0.231,0.125,0.076,0.052}),"")</f>
@@ -6848,13 +6873,13 @@
         <v>0</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>1614</v>
+        <v>265</v>
+      </c>
+      <c r="AJ14" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AL14" s="18">
-        <f>iferror(lookup(if(AK14="",H14,AK14),{0,1,5,10,100,500,1000,2500},{0.0,0.358,0.358,0.275,0.153,0.135,0.117,0.102}),"")</f>
+        <f>iferror(lookup(if(AK14="",H14,AK14),{0,1,5,10,100,500,1000,2500},{0.0,0.36,0.36,0.276,0.154,0.136,0.118,0.103}),"")</f>
         <v>0</v>
       </c>
       <c r="AM14" s="18">
@@ -6862,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -6897,10 +6922,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="17">
-        <v>11814</v>
+        <v>3739</v>
       </c>
       <c r="R15" s="18">
-        <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,3000,6000,9000,30000,75000},{0.0,0.56,0.488,0.3375,0.282,0.24,0.21375,0.2025,0.1875,0.1845,0.18}),"")</f>
+        <f>iferror(lookup(if(Q15="",H15,Q15),{0,1,10,100,500,1000,3000,6000,9000},{0.0,0.6,0.517,0.3578,0.29892,0.2544,0.22657,0.21465,0.21}),"")</f>
         <v>0</v>
       </c>
       <c r="S15" s="18">
@@ -6911,10 +6936,10 @@
         <v>200</v>
       </c>
       <c r="U15" s="17">
-        <v>2930</v>
+        <v>7462</v>
       </c>
       <c r="W15" s="18">
-        <f>iferror(USD_GBP*lookup(if(V15="",H15,V15),{0,1,5,10,100,150,3000,9000,24000,45000},{0.0,0.504,0.504,0.407,0.188,0.188,0.159,0.153,0.15,0.147}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V15="",H15,V15),{0,1,5,10,100,150,500,3000,9000,24000,45000},{0.0,0.513,0.513,0.372,0.26,0.26,0.192,0.162,0.156,0.153,0.15}),"")</f>
         <v>0</v>
       </c>
       <c r="X15" s="18">
@@ -6922,13 +6947,13 @@
         <v>0</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z15" s="17">
-        <v>362</v>
+        <v>3327</v>
       </c>
       <c r="AB15" s="18">
-        <f>iferror(lookup(if(AA15="",H15,AA15),{0,1,10,30,100,500,1000},{0.0,0.4923,0.3733,0.3517,0.33,0.3192,0.3156}),"")</f>
+        <f>iferror(lookup(if(AA15="",H15,AA15),{0,1,10,30,100,500,1000},{0.0,0.431,0.3282,0.3102,0.2922,0.2832,0.2796}),"")</f>
         <v>0</v>
       </c>
       <c r="AC15" s="18">
@@ -6936,13 +6961,13 @@
         <v>0</v>
       </c>
       <c r="AD15" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AE15" s="17">
-        <v>8950</v>
+        <v>14540</v>
       </c>
       <c r="AG15" s="18">
-        <f>iferror(lookup(if(AF15="",H15,AF15),{0,1,10,50,100,1000,10000},{0.0,0.56,0.464,0.464,0.325,0.24,0.193}),"")</f>
+        <f>iferror(lookup(if(AF15="",H15,AF15),{0,1,10,50,100,1000,10000},{0.0,0.56,0.488,0.488,0.338,0.24,0.187}),"")</f>
         <v>0</v>
       </c>
       <c r="AH15" s="18">
@@ -6950,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ15" s="17">
         <v>444</v>
       </c>
       <c r="AL15" s="18">
-        <f>iferror(lookup(if(AK15="",H15,AK15),{0,1,10,100,500,3000,9000,24000,45000},{0.0,0.56,0.464,0.325,0.281,0.224,0.193,0.187,0.175}),"")</f>
+        <f>iferror(lookup(if(AK15="",H15,AK15),{0,1,10,100,500,3000,9000,24000,45000},{0.0,0.56,0.495,0.337,0.282,0.224,0.193,0.187,0.175}),"")</f>
         <v>0</v>
       </c>
       <c r="AM15" s="18">
@@ -6964,13 +6989,13 @@
         <v>0</v>
       </c>
       <c r="AN15" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AO15" s="17">
         <v>3275</v>
       </c>
       <c r="AQ15" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP15="",H15,AP15),{0,1,25,100,250,500,1000,3000},{0.0,0.347,0.347,0.227,0.204,0.195,0.167,0.167}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP15="",H15,AP15),{0,1,25,100,500,1000,3000},{0.0,0.354,0.354,0.248,0.214,0.183,0.171}),"")</f>
         <v>0</v>
       </c>
       <c r="AR15" s="18">
@@ -6978,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="AS15" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -7016,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="17">
-        <v>21028</v>
+        <v>20491</v>
       </c>
       <c r="R16" s="18">
-        <f>iferror(lookup(if(Q16="",H16,Q16),{0,1,10,100,1000,2000,6000,10000,50000},{0.0,0.71,0.465,0.3077,0.23755,0.21465,0.20034,0.19319,0.18245}),"")</f>
+        <f>iferror(lookup(if(Q16="",H16,Q16),{0,1,10,100,1000,2000,6000,10000,50000},{0.0,0.71,0.465,0.3077,0.23755,0.21465,0.20034,0.19319,0.189}),"")</f>
         <v>0</v>
       </c>
       <c r="S16" s="18">
@@ -7041,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AE16" s="17">
-        <v>30907</v>
+        <v>28631</v>
       </c>
       <c r="AG16" s="18">
         <f>iferror(lookup(if(AF16="",H16,AF16),{0,1,10,50,100,1000,10000},{0.0,0.66,0.43,0.43,0.282,0.222,0.182}),"")</f>
@@ -7055,19 +7080,27 @@
         <v>0</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AJ16" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AN16" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AT16" s="17">
-        <v>1999</v>
+        <v>1989</v>
+      </c>
+      <c r="AV16" s="18">
+        <f>iferror(lookup(if(AU16="",H16,AU16),{0,1,5,25,100,500},{0.0,0.8,0.36,0.28,0.238,0.217}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="18">
+        <f>iferror(if(AU16="",H16,AU16)*AV16,"")</f>
+        <v>0</v>
       </c>
       <c r="AX16" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:45">
@@ -7101,8 +7134,8 @@
         <f>iferror(H17*I17,"")</f>
         <v>0</v>
       </c>
-      <c r="P17" s="20" t="s">
-        <v>193</v>
+      <c r="P17" s="17">
+        <v>1356</v>
       </c>
       <c r="R17" s="18">
         <f>iferror(lookup(if(Q17="",H17,Q17),{0,1,10,25,50,100,250,500,1500,3000,7500,10500},{0.0,1.51,1.372,1.288,1.232,1.176,1.064,0.98,0.812,0.784,0.7448,0.728}),"")</f>
@@ -7116,7 +7149,7 @@
         <v>202</v>
       </c>
       <c r="AE17" s="17">
-        <v>1735</v>
+        <v>15587</v>
       </c>
       <c r="AG17" s="18">
         <f>iferror(lookup(if(AF17="",H17,AF17),{0,1,10,50,100,1000,10000},{0.0,1.51,1.23,1.23,1.17,0.839,0.728}),"")</f>
@@ -7127,13 +7160,13 @@
         <v>0</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AO17" s="17">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="AQ17" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP17="",H17,AP17),{0,1,4,20,100,200},{0.0,5.57,5.31,5.04,4.78,4.55}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP17="",H17,AP17),{0,1,4,20,100,200},{0.0,1297.25,5.31,5.04,4.78,4.55}),"")</f>
         <v>0</v>
       </c>
       <c r="AR17" s="18">
@@ -7141,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:45">
@@ -7176,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="17">
-        <v>1392</v>
+        <v>1340</v>
       </c>
       <c r="R18" s="18">
         <f>iferror(lookup(if(Q18="",H18,Q18),{0,1,10,25,50,100,250,500},{0.0,0.25,0.236,0.2012,0.1758,0.1633,0.14448,0.1382}),"")</f>
@@ -7222,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="17">
-        <v>1412</v>
+        <v>5656</v>
       </c>
       <c r="R19" s="18">
         <f>iferror(lookup(if(Q19="",H19,Q19),{0,1,10,25,50,100,250,500},{0.0,0.29,0.271,0.2324,0.1974,0.1896,0.17028,0.16254}),"")</f>
@@ -7293,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AE20" s="17">
         <v>2579</v>
@@ -7307,13 +7340,13 @@
         <v>0</v>
       </c>
       <c r="AI20" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ20" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AL20" s="18">
-        <f>iferror(lookup(if(AK20="",H20,AK20),{0,1,5,10,100,500,1000},{0.0,0.351,0.351,0.241,0.101,0.085,0.068}),"")</f>
+        <f>iferror(lookup(if(AK20="",H20,AK20),{0,1,5,10,100,500,1000},{0.0,0.39,0.39,0.268,0.112,0.094,0.076}),"")</f>
         <v>0</v>
       </c>
       <c r="AM20" s="18">
@@ -7321,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -7381,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -7416,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="17">
-        <v>3940215</v>
+        <v>2450322</v>
       </c>
       <c r="R22" s="18">
-        <f>iferror(lookup(if(Q22="",H22,Q22),{0,1,10,25,50,100,250,500,1000,5000,15000,30000,75000},{0.0,0.1,0.025,0.018,0.0136,0.01,0.00764,0.00612,0.00451,0.00323,0.00281,0.00247,0.00231}),"")</f>
+        <f>iferror(lookup(if(Q22="",H22,Q22),{0,1,10,25,50,100,250,500,1000,5000,15000,30000,75000},{0.0,0.1,0.025,0.018,0.0136,0.01,0.00764,0.00612,0.0045,0.00323,0.00281,0.00247,0.00226}),"")</f>
         <v>0</v>
       </c>
       <c r="S22" s="18">
@@ -7430,10 +7463,10 @@
         <v>207</v>
       </c>
       <c r="U22" s="17">
-        <v>21000</v>
+        <v>95971</v>
       </c>
       <c r="W22" s="18">
-        <f>iferror(USD_GBP*lookup(if(V22="",H22,V22),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.04,0.04,0.024,0.024,0.018,0.012,0.009,0.007,0.0044}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V22="",H22,V22),{0,1,10,100,150,500,2500,7500,15000,75000},{0.0,0.04,0.04,0.024,0.024,0.018,0.012,0.009,0.007,0.0047}),"")</f>
         <v>0</v>
       </c>
       <c r="X22" s="18">
@@ -7441,13 +7474,13 @@
         <v>0</v>
       </c>
       <c r="Y22" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Z22" s="17">
-        <v>8700</v>
+        <v>3000</v>
       </c>
       <c r="AB22" s="18">
-        <f>iferror(lookup(if(AA22="",H22,AA22),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0063,0.0063,0.0048,0.0045,0.0042,0.0041,0.004}),"")</f>
+        <f>iferror(lookup(if(AA22="",H22,AA22),{0,1,50,500,1500,5000,25000,50000},{0.0,0.007,0.007,0.0054,0.0051,0.0048,0.0047,0.0047}),"")</f>
         <v>0</v>
       </c>
       <c r="AC22" s="18">
@@ -7455,10 +7488,10 @@
         <v>0</v>
       </c>
       <c r="AD22" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE22" s="17">
-        <v>1192409</v>
+        <v>2025194</v>
       </c>
       <c r="AG22" s="18">
         <f>iferror(lookup(if(AF22="",H22,AF22),{0,1,10,50,100,1000,10000},{0.0,0.1,0.015,0.015,0.006,0.005,0.003}),"")</f>
@@ -7469,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="AI22" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AJ22" s="17">
-        <v>90000</v>
+        <v>95971</v>
       </c>
       <c r="AL22" s="18">
         <f>iferror(lookup(if(AK22="",H22,AK22),{0,1,25,100,250,500,1000,2500,5000},{0.0,0.211,0.021,0.009,0.008,0.007,0.006,0.005,0.004}),"")</f>
@@ -7483,13 +7516,13 @@
         <v>0</v>
       </c>
       <c r="AN22" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AO22" s="17">
-        <v>1092637</v>
+        <v>1074637</v>
       </c>
       <c r="AQ22" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP22="",H22,AP22),{0,1,1000,15000},{0.0,0.004,0.004,0.004}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP22="",H22,AP22),{0,1,1000,15000},{0.0,0.004,0.004,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="AR22" s="18">
@@ -7497,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -7532,10 +7565,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="17">
-        <v>217349</v>
+        <v>3284</v>
       </c>
       <c r="R23" s="18">
-        <f>iferror(lookup(if(Q23="",H23,Q23),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
+        <f>iferror(lookup(if(Q23="",H23,Q23),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
         <v>0</v>
       </c>
       <c r="S23" s="18">
@@ -7549,7 +7582,7 @@
         <v>193</v>
       </c>
       <c r="W23" s="18">
-        <f>iferror(USD_GBP*lookup(if(V23="",H23,V23),{0,1,15000},{0.0,0.0043,0.0043}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V23="",H23,V23),{0,1,30000},{0.0,0.0049,0.0049}),"")</f>
         <v>0</v>
       </c>
       <c r="X23" s="18">
@@ -7557,10 +7590,10 @@
         <v>0</v>
       </c>
       <c r="Y23" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AE23" s="17">
-        <v>33427</v>
+        <v>69604</v>
       </c>
       <c r="AG23" s="18">
         <f>iferror(lookup(if(AF23="",H23,AF23),{0,1,10,50,100,1000,10000},{0.0,0.1,0.026,0.026,0.011,0.005,0.003}),"")</f>
@@ -7571,13 +7604,13 @@
         <v>0</v>
       </c>
       <c r="AI23" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ23" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AN23" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AO23" s="17">
         <v>23000</v>
@@ -7591,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="AS23" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -7626,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="17">
-        <v>22167</v>
+        <v>3807</v>
       </c>
       <c r="R24" s="18">
-        <f>iferror(lookup(if(Q24="",H24,Q24),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
+        <f>iferror(lookup(if(Q24="",H24,Q24),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
         <v>0</v>
       </c>
       <c r="S24" s="18">
@@ -7643,7 +7676,7 @@
         <v>193</v>
       </c>
       <c r="W24" s="18">
-        <f>iferror(USD_GBP*lookup(if(V24="",H24,V24),{0,1,15000},{0.0,0.005,0.005}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V24="",H24,V24),{0,1,30000},{0.0,0.005,0.005}),"")</f>
         <v>0</v>
       </c>
       <c r="X24" s="18">
@@ -7651,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AE24" s="17">
-        <v>48984</v>
+        <v>48181</v>
       </c>
       <c r="AG24" s="18">
         <f>iferror(lookup(if(AF24="",H24,AF24),{0,1,10,50,100,1000,10000},{0.0,0.1,0.025,0.025,0.008,0.005,0.003}),"")</f>
@@ -7665,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AJ24" s="20" t="s">
         <v>193</v>
@@ -7679,13 +7712,13 @@
         <v>0</v>
       </c>
       <c r="AN24" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AO24" s="17">
-        <v>41000</v>
+        <v>40000</v>
       </c>
       <c r="AQ24" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP24="",H24,AP24),{0,1,1000,5000,10000,15000},{0.0,0.005,0.005,0.005,0.005,0.005}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP24="",H24,AP24),{0,1,1000,5000,10000,15000},{0.0,0.004,0.004,0.005,0.005,0.004}),"")</f>
         <v>0</v>
       </c>
       <c r="AR24" s="18">
@@ -7693,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -7716,7 +7749,7 @@
         <v>108</v>
       </c>
       <c r="H25" s="17">
-        <f>BoardQty*2</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="I25" s="18">
@@ -7728,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="17">
-        <v>230781</v>
+        <v>240563</v>
       </c>
       <c r="R25" s="18">
-        <f>iferror(lookup(if(Q25="",H25,Q25),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
+        <f>iferror(lookup(if(Q25="",H25,Q25),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
         <v>0</v>
       </c>
       <c r="S25" s="18">
@@ -7745,7 +7778,7 @@
         <v>193</v>
       </c>
       <c r="W25" s="18">
-        <f>iferror(USD_GBP*lookup(if(V25="",H25,V25),{0,1,15000},{0.0,0.0043,0.0043}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V25="",H25,V25),{0,1,30000},{0.0,0.0049,0.0049}),"")</f>
         <v>0</v>
       </c>
       <c r="X25" s="18">
@@ -7753,13 +7786,13 @@
         <v>0</v>
       </c>
       <c r="Y25" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Z25" s="17">
-        <v>4250</v>
+        <v>4050</v>
       </c>
       <c r="AB25" s="18">
-        <f>iferror(lookup(if(AA25="",H25,AA25),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0191,0.0191,0.0146,0.0138,0.0129,0.0126,0.0124}),"")</f>
+        <f>iferror(lookup(if(AA25="",H25,AA25),{0,1,50,500,1500,5000,25000,50000},{0.0,0.0199,0.0199,0.0154,0.0146,0.0138,0.0134,0.0132}),"")</f>
         <v>0</v>
       </c>
       <c r="AC25" s="18">
@@ -7767,10 +7800,10 @@
         <v>0</v>
       </c>
       <c r="AD25" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AE25" s="17">
-        <v>203146</v>
+        <v>623070</v>
       </c>
       <c r="AG25" s="18">
         <f>iferror(lookup(if(AF25="",H25,AF25),{0,1,10,50,100,1000,10000},{0.0,0.1,0.026,0.026,0.011,0.005,0.003}),"")</f>
@@ -7781,16 +7814,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AJ25" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AN25" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AO25" s="17">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="AQ25" s="18">
         <f>iferror(USD_GBP*lookup(if(AP25="",H25,AP25),{0,1,1000,5000,10000,15000},{0.0,0.011,0.011,0.009,0.008,0.006}),"")</f>
@@ -7801,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:45">
@@ -7836,10 +7869,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="17">
-        <v>14931</v>
+        <v>12271</v>
       </c>
       <c r="R26" s="18">
-        <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
+        <f>iferror(lookup(if(Q26="",H26,Q26),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
         <v>0</v>
       </c>
       <c r="S26" s="18">
@@ -7853,7 +7886,7 @@
         <v>193</v>
       </c>
       <c r="W26" s="18">
-        <f>iferror(USD_GBP*lookup(if(V26="",H26,V26),{0,1,15000},{0.0,0.0043,0.0043}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V26="",H26,V26),{0,1,30000},{0.0,0.0049,0.0049}),"")</f>
         <v>0</v>
       </c>
       <c r="X26" s="18">
@@ -7861,10 +7894,10 @@
         <v>0</v>
       </c>
       <c r="Y26" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE26" s="17">
-        <v>81830</v>
+        <v>81725</v>
       </c>
       <c r="AG26" s="18">
         <f>iferror(lookup(if(AF26="",H26,AF26),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
@@ -7875,13 +7908,13 @@
         <v>0</v>
       </c>
       <c r="AI26" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AJ26" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AN26" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -7916,10 +7949,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="17">
-        <v>241053</v>
+        <v>191797</v>
       </c>
       <c r="R27" s="18">
-        <f>iferror(lookup(if(Q27="",H27,Q27),{0,1,10,100,1000,2500,5000,15000,30000,75000},{0.0,0.1,0.025,0.01,0.00451,0.00391,0.00323,0.00281,0.00247,0.00231}),"")</f>
+        <f>iferror(lookup(if(Q27="",H27,Q27),{0,1,10,100,1000,2500,5000,15000,30000,75000,105000},{0.0,0.1,0.027,0.011,0.00496,0.0043,0.00355,0.00309,0.00271,0.00249,0.00244}),"")</f>
         <v>0</v>
       </c>
       <c r="S27" s="18">
@@ -7933,7 +7966,7 @@
         <v>193</v>
       </c>
       <c r="W27" s="18">
-        <f>iferror(USD_GBP*lookup(if(V27="",H27,V27),{0,1,15000},{0.0,0.0043,0.0043}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V27="",H27,V27),{0,1,30000},{0.0,0.0049,0.0049}),"")</f>
         <v>0</v>
       </c>
       <c r="X27" s="18">
@@ -7941,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z27" s="17">
         <v>14800</v>
@@ -7955,10 +7988,10 @@
         <v>0</v>
       </c>
       <c r="AD27" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AE27" s="17">
-        <v>109592</v>
+        <v>99927</v>
       </c>
       <c r="AG27" s="18">
         <f>iferror(lookup(if(AF27="",H27,AF27),{0,1,10,50,100,1000,10000},{0.0,0.1,0.027,0.027,0.011,0.005,0.003}),"")</f>
@@ -7969,16 +8002,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AJ27" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AN27" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AO27" s="17">
-        <v>54000</v>
+        <v>53000</v>
       </c>
       <c r="AQ27" s="18">
         <f>iferror(USD_GBP*lookup(if(AP27="",H27,AP27),{0,1,1000,5000,10000,15000},{0.0,0.004,0.004,0.004,0.004,0.004}),"")</f>
@@ -7989,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="AS27" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -8027,7 +8060,7 @@
         <v>193</v>
       </c>
       <c r="R28" s="18">
-        <f>iferror(lookup(if(Q28="",H28,Q28),{0,1,3000},{0.0,0.09918,0.09918}),"")</f>
+        <f>iferror(lookup(if(Q28="",H28,Q28),{0,1,3000},{0.0,0.12257,0.12257}),"")</f>
         <v>0</v>
       </c>
       <c r="S28" s="18">
@@ -8049,13 +8082,13 @@
         <v>0</v>
       </c>
       <c r="Y28" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE28" s="17">
-        <v>685</v>
+        <v>121</v>
       </c>
       <c r="AG28" s="18">
-        <f>iferror(lookup(if(AF28="",H28,AF28),{0,1,10,50,100,1000,10000},{0.0,0.45,0.303,0.303,0.143,0.11,0.085}),"")</f>
+        <f>iferror(lookup(if(AF28="",H28,AF28),{0,1,10,50,100,1000,10000},{0.0,0.43,0.321,0.321,0.165,0.119,0.099}),"")</f>
         <v>0</v>
       </c>
       <c r="AH28" s="18">
@@ -8063,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="AI28" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AJ28" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AN28" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:45">
@@ -8086,10 +8119,10 @@
         <v>124</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H29" s="17">
         <f>BoardQty*1</f>
@@ -8103,11 +8136,11 @@
         <f>iferror(H29*I29,"")</f>
         <v>0</v>
       </c>
-      <c r="P29" s="17">
-        <v>3911</v>
+      <c r="P29" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="R29" s="18">
-        <f>iferror(lookup(if(Q29="",H29,Q29),{0,1,10,25,100,250,500,1000,2500,5000,10000,25000,50000,125000},{0.0,0.49,0.4,0.3656,0.272,0.24652,0.204,0.153,0.14025,0.13175,0.12325,0.11305,0.1088,0.10455}),"")</f>
+        <f>iferror(lookup(if(Q29="",H29,Q29),{0,1,2000},{0.0,1.1448,1.1448}),"")</f>
         <v>0</v>
       </c>
       <c r="S29" s="18">
@@ -8116,6 +8149,34 @@
       </c>
       <c r="T29" s="19" t="s">
         <v>214</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>1996</v>
+      </c>
+      <c r="AB29" s="18">
+        <f>iferror(lookup(if(AA29="",H29,AA29),{0,1,10,30,100,500,1000},{0.0,1.4156,1.0496,0.9828,0.9161,0.8855,0.871}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="18">
+        <f>iferror(if(AA29="",H29,AA29)*AB29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>627</v>
+      </c>
+      <c r="AG29" s="18">
+        <f>iferror(lookup(if(AF29="",H29,AF29),{0,1,10,50,100,1000,10000},{0.0,2.49,2.25,2.12,1.7,1.15,1.1}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="18">
+        <f>iferror(if(AF29="",H29,AF29)*AG29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="19" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:45">
@@ -8132,10 +8193,10 @@
         <v>129</v>
       </c>
       <c r="F30" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>127</v>
       </c>
       <c r="H30" s="17">
         <f>BoardQty*1</f>
@@ -8149,11 +8210,11 @@
         <f>iferror(H30*I30,"")</f>
         <v>0</v>
       </c>
-      <c r="P30" s="20" t="s">
-        <v>193</v>
+      <c r="P30" s="17">
+        <v>3911</v>
       </c>
       <c r="R30" s="18">
-        <f>iferror(lookup(if(Q30="",H30,Q30),{0,1,2000},{0.0,1.08,1.08}),"")</f>
+        <f>iferror(lookup(if(Q30="",H30,Q30),{0,1,10,25,100,250,500,1000,2500,5000},{0.0,0.47,0.38,0.3472,0.2584,0.23416,0.1938,0.14535,0.13324,0.12516}),"")</f>
         <v>0</v>
       </c>
       <c r="S30" s="18">
@@ -8162,20 +8223,6 @@
       </c>
       <c r="T30" s="19" t="s">
         <v>215</v>
-      </c>
-      <c r="AE30" s="17">
-        <v>628</v>
-      </c>
-      <c r="AG30" s="18">
-        <f>iferror(lookup(if(AF30="",H30,AF30),{0,1,10,50,100,1000,10000},{0.0,2.36,2.0,2.0,1.71,1.16,1.03}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="18">
-        <f>iferror(if(AF30="",H30,AF30)*AG30,"")</f>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="19" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -8210,10 +8257,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="17">
-        <v>3311</v>
+        <v>3211</v>
       </c>
       <c r="R31" s="18">
-        <f>iferror(lookup(if(Q31="",H31,Q31),{0,1,10,25,100,250,500,1000,3000,6000,15000},{0.0,0.46,0.376,0.344,0.232,0.192,0.176,0.132,0.124,0.116,0.108}),"")</f>
+        <f>iferror(lookup(if(Q31="",H31,Q31),{0,1,10,25,100,250,500,1000,3000,6000,15000,30000},{0.0,0.54,0.438,0.4012,0.2705,0.22388,0.20522,0.15391,0.14458,0.13526,0.12406,0.1232}),"")</f>
         <v>0</v>
       </c>
       <c r="S31" s="18">
@@ -8224,10 +8271,10 @@
         <v>216</v>
       </c>
       <c r="U31" s="17">
-        <v>1315</v>
+        <v>695</v>
       </c>
       <c r="W31" s="18">
-        <f>iferror(USD_GBP*lookup(if(V31="",H31,V31),{0,1,5,10,100,150,3000,9000,24000,45000},{0.0,0.402,0.402,0.294,0.1,0.1,0.087,0.084,0.081,0.079}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V31="",H31,V31),{0,1,5,10,100,150,500,3000,9000,24000,45000},{0.0,0.422,0.422,0.275,0.142,0.142,0.105,0.0914,0.0882,0.0872,0.086}),"")</f>
         <v>0</v>
       </c>
       <c r="X31" s="18">
@@ -8235,13 +8282,13 @@
         <v>0</v>
       </c>
       <c r="Y31" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE31" s="17">
-        <v>10148</v>
+        <v>6644</v>
       </c>
       <c r="AG31" s="18">
-        <f>iferror(lookup(if(AF31="",H31,AF31),{0,1,10,50,100,1000,10000},{0.0,0.46,0.343,0.343,0.175,0.131,0.11}),"")</f>
+        <f>iferror(lookup(if(AF31="",H31,AF31),{0,1,10,50,100,1000,10000},{0.0,0.49,0.364,0.364,0.186,0.14,0.116}),"")</f>
         <v>0</v>
       </c>
       <c r="AH31" s="18">
@@ -8249,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="AI31" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ31" s="17">
-        <v>1265</v>
+        <v>655</v>
       </c>
       <c r="AL31" s="18">
-        <f>iferror(lookup(if(AK31="",H31,AK31),{0,1,5,10,100},{0.0,0.46,0.46,0.376,0.232}),"")</f>
+        <f>iferror(lookup(if(AK31="",H31,AK31),{0,1,5,10,100,3000,6000,12000,18000,24000,30000,300000},{0.0,0.46,0.46,0.343,0.175,0.115,0.113,0.111,0.11,0.108,0.106,0.104}),"")</f>
         <v>0</v>
       </c>
       <c r="AM31" s="18">
@@ -8263,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="AN31" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AO31" s="17">
         <v>2856</v>
       </c>
       <c r="AQ31" s="18">
-        <f>iferror(USD_GBP*lookup(if(AP31="",H31,AP31),{0,1,18,180,1800,3000,18000,54000},{0.0,0.257,0.257,0.194,0.105,0.085,0.086,0.084}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(AP31="",H31,AP31),{0,1,18,108,1008,3000,3006,9000},{0.0,0.262,0.262,0.133,0.1,0.085,0.087,0.084}),"")</f>
         <v>0</v>
       </c>
       <c r="AR31" s="18">
@@ -8277,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="1:45">
@@ -8315,7 +8362,7 @@
         <v>193</v>
       </c>
       <c r="R32" s="18">
-        <f>iferror(lookup(if(Q32="",H32,Q32),{0,1,5000},{0.0,0.15525,0.15525}),"")</f>
+        <f>iferror(lookup(if(Q32="",H32,Q32),{0,1,5000},{0.0,0.18102,0.18102}),"")</f>
         <v>0</v>
       </c>
       <c r="S32" s="18">
@@ -8337,13 +8384,13 @@
         <v>0</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AE32" s="17">
-        <v>3543</v>
+        <v>3515</v>
       </c>
       <c r="AG32" s="18">
-        <f>iferror(lookup(if(AF32="",H32,AF32),{0,1,10,50,100,1000,10000},{0.0,0.5,0.402,0.402,0.321,0.195,0.15}),"")</f>
+        <f>iferror(lookup(if(AF32="",H32,AF32),{0,1,10,50,100,1000,10000},{0.0,0.55,0.443,0.443,0.355,0.216,0.177}),"")</f>
         <v>0</v>
       </c>
       <c r="AH32" s="18">
@@ -8351,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -8364,6 +8411,9 @@
       <c r="C33" s="17" t="s">
         <v>140</v>
       </c>
+      <c r="D33" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="E33" s="17" t="s">
         <v>141</v>
       </c>
@@ -8371,7 +8421,7 @@
         <v>142</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H33" s="17">
         <f>BoardQty*1</f>
@@ -8389,7 +8439,7 @@
         <v>193</v>
       </c>
       <c r="R33" s="18">
-        <f>iferror(lookup(if(Q33="",H33,Q33),{0,1,10,25,100,5000},{0.0,3.21,2.885,2.7272,2.424,2.424}),"")</f>
+        <f>iferror(lookup(if(Q33="",H33,Q33),{0,1,10},{0.0,3.4,3.333}),"")</f>
         <v>0</v>
       </c>
       <c r="S33" s="18">
@@ -8403,7 +8453,7 @@
         <v>193</v>
       </c>
       <c r="W33" s="18">
-        <f>iferror(USD_GBP*lookup(if(V33="",H33,V33),{0,1,10,25,50,100,250,500,1000},{0.0,2.76,2.07,1.95,1.83,1.71,1.53,1.47,1.22}),"")</f>
+        <f>iferror(USD_GBP*lookup(if(V33="",H33,V33),{0,1,10,25,50,100},{0.0,3.21,2.72,2.56,2.4,2.25}),"")</f>
         <v>0</v>
       </c>
       <c r="X33" s="18">
@@ -8411,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="Y33" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AE33" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AG33" s="18">
-        <f>iferror(lookup(if(AF33="",H33,AF33),{0,1,10,50,100,1000,10000},{0.0,3.21,2.72,2.72,2.24,1.61,1.51}),"")</f>
+        <f>iferror(lookup(if(AF33="",H33,AF33),{0,1,10,50,100,1000,10000},{0.0,3.33,2.72,2.72,2.24,1.61,1.53}),"")</f>
         <v>0</v>
       </c>
       <c r="AH33" s="18">
@@ -8425,13 +8475,13 @@
         <v>0</v>
       </c>
       <c r="AI33" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ33" s="17">
-        <v>4</v>
+        <v>281</v>
+      </c>
+      <c r="AJ33" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AL33" s="18">
-        <f>iferror(lookup(if(AK33="",H33,AK33),{0,1,10,25,50,100,250,5000,10000},{0.0,3.53,3.18,3.0,2.73,2.46,2.21,1.48,1.45}),"")</f>
+        <f>iferror(lookup(if(AK33="",H33,AK33),{0,1,10,25,50,100,250},{0.0,3.21,2.72,2.56,2.4,2.24,2.01}),"")</f>
         <v>0</v>
       </c>
       <c r="AM33" s="18">
@@ -8439,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="AN33" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -8477,7 +8527,7 @@
         <v>193</v>
       </c>
       <c r="R34" s="18">
-        <f>iferror(lookup(if(Q34="",H34,Q34),{0,1},{0.0,3.2}),"")</f>
+        <f>iferror(lookup(if(Q34="",H34,Q34),{0,1},{0.0,3.52}),"")</f>
         <v>0</v>
       </c>
       <c r="S34" s="18">
@@ -8487,8 +8537,8 @@
       <c r="T34" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="AE34" s="20" t="s">
-        <v>193</v>
+      <c r="AE34" s="17">
+        <v>23</v>
       </c>
       <c r="AG34" s="18">
         <f>iferror(lookup(if(AF34="",H34,AF34),{0,1,10,50,100,1000,10000},{0.0,3.2,3.2,3.2,3.2,3.2,3.2}),"")</f>
@@ -8499,13 +8549,21 @@
         <v>0</v>
       </c>
       <c r="AI34" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AT34" s="20" t="s">
         <v>193</v>
       </c>
+      <c r="AV34" s="18">
+        <f>iferror(lookup(if(AU34="",H34,AU34),{0,1,5,25,100},{0.0,4.1,3.85,3.6,3.35}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="AW34" s="18">
+        <f>iferror(if(AU34="",H34,AU34)*AV34,"")</f>
+        <v>0</v>
+      </c>
       <c r="AX34" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -8543,7 +8601,7 @@
         <v>193</v>
       </c>
       <c r="R35" s="18">
-        <f>iferror(lookup(if(Q35="",H35,Q35),{0,1,25,100,1500},{0.0,1.35,1.3044,1.2543,1.17521}),"")</f>
+        <f>iferror(lookup(if(Q35="",H35,Q35),{0,1,25,1500},{0.0,1.35,1.316,1.316}),"")</f>
         <v>0</v>
       </c>
       <c r="S35" s="18">
@@ -8565,10 +8623,10 @@
         <v>0</v>
       </c>
       <c r="Y35" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE35" s="17">
-        <v>1686</v>
+        <v>244</v>
+      </c>
+      <c r="AE35" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AG35" s="18">
         <f>iferror(lookup(if(AF35="",H35,AF35),{0,1,10,50,100,1000,10000},{0.0,1.35,1.35,1.3,1.25,1.25,1.17}),"")</f>
@@ -8579,13 +8637,13 @@
         <v>0</v>
       </c>
       <c r="AI35" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ35" s="20" t="s">
         <v>193</v>
       </c>
       <c r="AL35" s="18">
-        <f>iferror(lookup(if(AK35="",H35,AK35),{0,1,10,25,50,100},{0.0,1.75,1.63,1.52,1.42,1.32}),"")</f>
+        <f>iferror(lookup(if(AK35="",H35,AK35),{0,1,10,25,50,100},{0.0,1.73,1.61,1.51,1.41,1.31}),"")</f>
         <v>0</v>
       </c>
       <c r="AM35" s="18">
@@ -8593,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="AN35" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:50">
@@ -8631,7 +8689,7 @@
         <v>7318</v>
       </c>
       <c r="R36" s="18">
-        <f>iferror(lookup(if(Q36="",H36,Q36),{0,1,10,25,100,250,500,1000,3000},{0.0,0.62,0.545,0.5116,0.3878,0.33,0.3135,0.23925,0.22275}),"")</f>
+        <f>iferror(lookup(if(Q36="",H36,Q36),{0,1,10,25,100,250,500,1000,3000,6000},{0.0,0.66,0.577,0.542,0.411,0.3498,0.33232,0.2536,0.23611,0.231}),"")</f>
         <v>0</v>
       </c>
       <c r="S36" s="18">
@@ -8645,10 +8703,10 @@
         <v>193</v>
       </c>
       <c r="Y36" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AE36" s="17">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="AG36" s="18">
         <f>iferror(lookup(if(AF36="",H36,AF36),{0,1,10,50,100,1000,10000},{0.0,0.62,0.511,0.511,0.33,0.239,0.219}),"")</f>
@@ -8659,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AJ36" s="20" t="s">
         <v>193</v>
@@ -8673,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="AN36" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:50">
@@ -8707,8 +8765,8 @@
         <f>iferror(H37*I37,"")</f>
         <v>0</v>
       </c>
-      <c r="P37" s="17">
-        <v>3874</v>
+      <c r="P37" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="R37" s="18">
         <f>iferror(lookup(if(Q37="",H37,Q37),{0,1,25,100,2000},{0.0,6.0,5.25,5.005,5.005}),"")</f>
@@ -8721,8 +8779,8 @@
       <c r="T37" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="AE37" s="17">
-        <v>1112</v>
+      <c r="AE37" s="20" t="s">
+        <v>193</v>
       </c>
       <c r="AG37" s="18">
         <f>iferror(lookup(if(AF37="",H37,AF37),{0,1,10,50,100,1000,10000},{0.0,6.06,6.06,5.31,5.06,5.06,5.05}),"")</f>
@@ -8733,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -8966,7 +9024,7 @@
     </row>
     <row r="43" spans="1:50">
       <c r="A43" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L43">
         <f t="array" ref="L43">IFERROR(CONCATENATE(INDEX(O7:O38,SMALL(IF(ISNUMBER(L7:L38),IF(L7:L38&gt;0,IF(O7:O38&lt;&gt;"",ROW(L7:L38)-MIN(ROW(L7:L38))+1))),ROW()-ROW(A$41)+1)),",",TEXT(INDEX(L7:L38,SMALL(IF(ISNUMBER(L7:L38),IF(L7:L38&gt;0,IF(O7:O38&lt;&gt;"",ROW(L7:L38)-MIN(ROW(L7:L38))+1))),ROW()-ROW(A$41)+1)),"##0"),",",SUBSTITUTE(INDEX(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A38,SMALL(IF(ISNUMBER(L7:L38),IF(L7:L38&gt;0,IF(O7:O38&lt;&gt;"",ROW(L7:L38)-MIN(ROW(L7:L38))+1))),ROW()-ROW(A$41)+1)),",",";")),"")</f>
@@ -10245,1456 +10303,1525 @@
     <mergeCell ref="AO5:AS5"/>
     <mergeCell ref="AT5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="AA10">
+  <conditionalFormatting sqref="AA11">
+    <cfRule type="expression" dxfId="3" priority="425">
+      <formula>AND(AA11&gt;0,AA11&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="426" operator="greaterThan">
+      <formula>Z11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA12">
     <cfRule type="expression" dxfId="3" priority="431">
-      <formula>AND(AA10&gt;0,AA10&lt;100)</formula>
+      <formula>AND(AA12&gt;0,AA12&lt;10)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="432" operator="greaterThan">
-      <formula>Z10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA11">
+      <formula>Z12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA13">
     <cfRule type="expression" dxfId="3" priority="437">
-      <formula>AND(AA11&gt;0,AA11&lt;5)</formula>
+      <formula>AND(AA13&gt;0,AA13&lt;50)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="438" operator="greaterThan">
-      <formula>Z11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA12">
-    <cfRule type="expression" dxfId="3" priority="443">
-      <formula>AND(AA12&gt;0,AA12&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="444" operator="greaterThan">
-      <formula>Z12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA13">
-    <cfRule type="expression" dxfId="3" priority="449">
-      <formula>AND(AA13&gt;0,AA13&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="450" operator="greaterThan">
       <formula>Z13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
+    <cfRule type="cellIs" dxfId="1" priority="443" operator="greaterThan">
+      <formula>Z15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA22">
+    <cfRule type="expression" dxfId="3" priority="448">
+      <formula>AND(AA22&gt;0,AA22&lt;50)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="449" operator="greaterThan">
+      <formula>Z22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25">
+    <cfRule type="expression" dxfId="3" priority="454">
+      <formula>AND(AA25&gt;0,AA25&lt;50)</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="455" operator="greaterThan">
-      <formula>Z15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA22">
+      <formula>Z25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA27">
     <cfRule type="expression" dxfId="3" priority="460">
-      <formula>AND(AA22&gt;0,AA22&lt;50)</formula>
+      <formula>AND(AA27&gt;0,AA27&lt;50)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="461" operator="greaterThan">
-      <formula>Z22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA25">
-    <cfRule type="expression" dxfId="3" priority="466">
-      <formula>AND(AA25&gt;0,AA25&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="467" operator="greaterThan">
-      <formula>Z25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA27">
-    <cfRule type="expression" dxfId="3" priority="472">
-      <formula>AND(AA27&gt;0,AA27&lt;50)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="473" operator="greaterThan">
       <formula>Z27</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AA29">
+    <cfRule type="cellIs" dxfId="1" priority="466" operator="greaterThan">
+      <formula>Z29</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AA8">
+    <cfRule type="expression" dxfId="3" priority="413">
+      <formula>AND(AA8&gt;0,AA8&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="414" operator="greaterThan">
+      <formula>Z8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA9">
     <cfRule type="expression" dxfId="3" priority="419">
-      <formula>AND(AA8&gt;0,AA8&lt;10)</formula>
+      <formula>AND(AA9&gt;0,AA9&lt;20)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="420" operator="greaterThan">
-      <formula>Z8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA9">
-    <cfRule type="expression" dxfId="3" priority="425">
-      <formula>AND(AA9&gt;0,AA9&lt;20)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="426" operator="greaterThan">
       <formula>Z9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB10">
+  <conditionalFormatting sqref="AB11">
+    <cfRule type="cellIs" dxfId="4" priority="428" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12">
     <cfRule type="cellIs" dxfId="4" priority="434" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13">
+    <cfRule type="cellIs" dxfId="4" priority="440" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB15">
+    <cfRule type="cellIs" dxfId="4" priority="445" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB22">
+    <cfRule type="cellIs" dxfId="4" priority="451" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB25">
+    <cfRule type="cellIs" dxfId="4" priority="457" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB27">
+    <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB29">
+    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8">
+    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9">
+    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11">
+    <cfRule type="cellIs" dxfId="4" priority="427" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="cellIs" dxfId="4" priority="433" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC13">
+    <cfRule type="cellIs" dxfId="4" priority="439" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC15">
+    <cfRule type="cellIs" dxfId="4" priority="444" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC22">
+    <cfRule type="cellIs" dxfId="4" priority="450" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC25">
+    <cfRule type="cellIs" dxfId="4" priority="456" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC27">
+    <cfRule type="cellIs" dxfId="4" priority="462" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC29">
+    <cfRule type="cellIs" dxfId="4" priority="467" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC8">
+    <cfRule type="cellIs" dxfId="4" priority="415" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9">
+    <cfRule type="cellIs" dxfId="4" priority="421" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE10">
+    <cfRule type="cellIs" dxfId="1" priority="484" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="485" operator="lessThan">
+      <formula>H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE11">
+    <cfRule type="cellIs" dxfId="1" priority="489" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="490" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12">
+    <cfRule type="cellIs" dxfId="1" priority="494" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="495" operator="lessThan">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13">
+    <cfRule type="cellIs" dxfId="1" priority="499" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="500" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14">
+    <cfRule type="cellIs" dxfId="1" priority="504" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="505" operator="lessThan">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE15">
+    <cfRule type="cellIs" dxfId="1" priority="509" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="510" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE16">
+    <cfRule type="cellIs" dxfId="1" priority="514" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="515" operator="lessThan">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE17">
+    <cfRule type="cellIs" dxfId="1" priority="519" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="520" operator="lessThan">
+      <formula>H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE20">
+    <cfRule type="cellIs" dxfId="1" priority="524" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="525" operator="lessThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21">
+    <cfRule type="cellIs" dxfId="1" priority="529" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="530" operator="lessThan">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE22">
+    <cfRule type="cellIs" dxfId="1" priority="534" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="535" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE23">
+    <cfRule type="cellIs" dxfId="1" priority="539" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="540" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE24">
+    <cfRule type="cellIs" dxfId="1" priority="544" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="545" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE25">
+    <cfRule type="cellIs" dxfId="1" priority="549" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="550" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE26">
+    <cfRule type="cellIs" dxfId="1" priority="554" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="555" operator="lessThan">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE27">
+    <cfRule type="cellIs" dxfId="1" priority="559" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="560" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE28">
+    <cfRule type="cellIs" dxfId="1" priority="564" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="565" operator="lessThan">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE29">
+    <cfRule type="cellIs" dxfId="1" priority="569" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="570" operator="lessThan">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31">
+    <cfRule type="cellIs" dxfId="1" priority="574" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="575" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE32">
+    <cfRule type="cellIs" dxfId="1" priority="579" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="580" operator="lessThan">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="cellIs" dxfId="1" priority="584" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="585" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE34">
+    <cfRule type="cellIs" dxfId="1" priority="589" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="590" operator="lessThan">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE35">
+    <cfRule type="cellIs" dxfId="1" priority="594" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="595" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE36">
+    <cfRule type="cellIs" dxfId="1" priority="599" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="600" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE37">
+    <cfRule type="cellIs" dxfId="1" priority="604" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="605" operator="lessThan">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE7">
+    <cfRule type="cellIs" dxfId="1" priority="469" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="470" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="cellIs" dxfId="1" priority="474" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="475" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule type="cellIs" dxfId="1" priority="479" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="480" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF10">
+    <cfRule type="cellIs" dxfId="1" priority="486" operator="greaterThan">
+      <formula>AE10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF11">
+    <cfRule type="cellIs" dxfId="1" priority="491" operator="greaterThan">
+      <formula>AE11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12">
+    <cfRule type="cellIs" dxfId="1" priority="496" operator="greaterThan">
+      <formula>AE12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF13">
+    <cfRule type="cellIs" dxfId="1" priority="501" operator="greaterThan">
+      <formula>AE13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF14">
+    <cfRule type="cellIs" dxfId="1" priority="506" operator="greaterThan">
+      <formula>AE14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF15">
+    <cfRule type="cellIs" dxfId="1" priority="511" operator="greaterThan">
+      <formula>AE15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF16">
+    <cfRule type="cellIs" dxfId="1" priority="516" operator="greaterThan">
+      <formula>AE16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF17">
+    <cfRule type="cellIs" dxfId="1" priority="521" operator="greaterThan">
+      <formula>AE17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF20">
+    <cfRule type="cellIs" dxfId="1" priority="526" operator="greaterThan">
+      <formula>AE20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF21">
+    <cfRule type="cellIs" dxfId="1" priority="531" operator="greaterThan">
+      <formula>AE21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22">
+    <cfRule type="cellIs" dxfId="1" priority="536" operator="greaterThan">
+      <formula>AE22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF23">
+    <cfRule type="cellIs" dxfId="1" priority="541" operator="greaterThan">
+      <formula>AE23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="cellIs" dxfId="1" priority="546" operator="greaterThan">
+      <formula>AE24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF25">
+    <cfRule type="cellIs" dxfId="1" priority="551" operator="greaterThan">
+      <formula>AE25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF26">
+    <cfRule type="cellIs" dxfId="1" priority="556" operator="greaterThan">
+      <formula>AE26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF27">
+    <cfRule type="cellIs" dxfId="1" priority="561" operator="greaterThan">
+      <formula>AE27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF28">
+    <cfRule type="cellIs" dxfId="1" priority="566" operator="greaterThan">
+      <formula>AE28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF29">
+    <cfRule type="cellIs" dxfId="1" priority="571" operator="greaterThan">
+      <formula>AE29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF31">
+    <cfRule type="cellIs" dxfId="1" priority="576" operator="greaterThan">
+      <formula>AE31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF32">
+    <cfRule type="cellIs" dxfId="1" priority="581" operator="greaterThan">
+      <formula>AE32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule type="cellIs" dxfId="1" priority="586" operator="greaterThan">
+      <formula>AE33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF34">
+    <cfRule type="cellIs" dxfId="1" priority="591" operator="greaterThan">
+      <formula>AE34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF35">
+    <cfRule type="cellIs" dxfId="1" priority="596" operator="greaterThan">
+      <formula>AE35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36">
+    <cfRule type="cellIs" dxfId="1" priority="601" operator="greaterThan">
+      <formula>AE36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF37">
+    <cfRule type="cellIs" dxfId="1" priority="606" operator="greaterThan">
+      <formula>AE37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="cellIs" dxfId="1" priority="471" operator="greaterThan">
+      <formula>AE7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="cellIs" dxfId="1" priority="476" operator="greaterThan">
+      <formula>AE8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule type="cellIs" dxfId="1" priority="481" operator="greaterThan">
+      <formula>AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="4" priority="488" operator="lessThanOrEqual">
       <formula>I10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB11">
-    <cfRule type="cellIs" dxfId="4" priority="440" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="4" priority="493" operator="lessThanOrEqual">
       <formula>I11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12">
-    <cfRule type="cellIs" dxfId="4" priority="446" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="4" priority="498" operator="lessThanOrEqual">
       <formula>I12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB13">
-    <cfRule type="cellIs" dxfId="4" priority="452" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="4" priority="503" operator="lessThanOrEqual">
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB15">
-    <cfRule type="cellIs" dxfId="4" priority="457" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="4" priority="508" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="4" priority="513" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22">
-    <cfRule type="cellIs" dxfId="4" priority="463" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG16">
+    <cfRule type="cellIs" dxfId="4" priority="518" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG17">
+    <cfRule type="cellIs" dxfId="4" priority="523" operator="lessThanOrEqual">
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG20">
+    <cfRule type="cellIs" dxfId="4" priority="528" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="cellIs" dxfId="4" priority="533" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="4" priority="538" operator="lessThanOrEqual">
       <formula>I22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB25">
-    <cfRule type="cellIs" dxfId="4" priority="469" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="cellIs" dxfId="4" priority="543" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="cellIs" dxfId="4" priority="548" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG25">
+    <cfRule type="cellIs" dxfId="4" priority="553" operator="lessThanOrEqual">
       <formula>I25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB27">
-    <cfRule type="cellIs" dxfId="4" priority="475" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG26">
+    <cfRule type="cellIs" dxfId="4" priority="558" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG27">
+    <cfRule type="cellIs" dxfId="4" priority="563" operator="lessThanOrEqual">
       <formula>I27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8">
-    <cfRule type="cellIs" dxfId="4" priority="422" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG28">
+    <cfRule type="cellIs" dxfId="4" priority="568" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG29">
+    <cfRule type="cellIs" dxfId="4" priority="573" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG31">
+    <cfRule type="cellIs" dxfId="4" priority="578" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG32">
+    <cfRule type="cellIs" dxfId="4" priority="583" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="cellIs" dxfId="4" priority="588" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG34">
+    <cfRule type="cellIs" dxfId="4" priority="593" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG35">
+    <cfRule type="cellIs" dxfId="4" priority="598" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG36">
+    <cfRule type="cellIs" dxfId="4" priority="603" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG37">
+    <cfRule type="cellIs" dxfId="4" priority="608" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="cellIs" dxfId="4" priority="473" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="4" priority="478" operator="lessThanOrEqual">
       <formula>I8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB9">
-    <cfRule type="cellIs" dxfId="4" priority="428" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="4" priority="483" operator="lessThanOrEqual">
       <formula>I9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC10">
-    <cfRule type="cellIs" dxfId="4" priority="433" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH10">
+    <cfRule type="cellIs" dxfId="4" priority="487" operator="lessThanOrEqual">
       <formula>J10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC11">
-    <cfRule type="cellIs" dxfId="4" priority="439" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="4" priority="492" operator="lessThanOrEqual">
       <formula>J11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
-    <cfRule type="cellIs" dxfId="4" priority="445" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="cellIs" dxfId="4" priority="497" operator="lessThanOrEqual">
       <formula>J12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC13">
-    <cfRule type="cellIs" dxfId="4" priority="451" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="4" priority="502" operator="lessThanOrEqual">
       <formula>J13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC15">
-    <cfRule type="cellIs" dxfId="4" priority="456" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="4" priority="507" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15">
+    <cfRule type="cellIs" dxfId="4" priority="512" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC22">
-    <cfRule type="cellIs" dxfId="4" priority="462" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH16">
+    <cfRule type="cellIs" dxfId="4" priority="517" operator="lessThanOrEqual">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17">
+    <cfRule type="cellIs" dxfId="4" priority="522" operator="lessThanOrEqual">
+      <formula>J17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20">
+    <cfRule type="cellIs" dxfId="4" priority="527" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21">
+    <cfRule type="cellIs" dxfId="4" priority="532" operator="lessThanOrEqual">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH22">
+    <cfRule type="cellIs" dxfId="4" priority="537" operator="lessThanOrEqual">
       <formula>J22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC25">
-    <cfRule type="cellIs" dxfId="4" priority="468" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH23">
+    <cfRule type="cellIs" dxfId="4" priority="542" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH24">
+    <cfRule type="cellIs" dxfId="4" priority="547" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH25">
+    <cfRule type="cellIs" dxfId="4" priority="552" operator="lessThanOrEqual">
       <formula>J25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC27">
-    <cfRule type="cellIs" dxfId="4" priority="474" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH26">
+    <cfRule type="cellIs" dxfId="4" priority="557" operator="lessThanOrEqual">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH27">
+    <cfRule type="cellIs" dxfId="4" priority="562" operator="lessThanOrEqual">
       <formula>J27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC8">
-    <cfRule type="cellIs" dxfId="4" priority="421" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH28">
+    <cfRule type="cellIs" dxfId="4" priority="567" operator="lessThanOrEqual">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH29">
+    <cfRule type="cellIs" dxfId="4" priority="572" operator="lessThanOrEqual">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH31">
+    <cfRule type="cellIs" dxfId="4" priority="577" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH32">
+    <cfRule type="cellIs" dxfId="4" priority="582" operator="lessThanOrEqual">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule type="cellIs" dxfId="4" priority="587" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH34">
+    <cfRule type="cellIs" dxfId="4" priority="592" operator="lessThanOrEqual">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH35">
+    <cfRule type="cellIs" dxfId="4" priority="597" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH36">
+    <cfRule type="cellIs" dxfId="4" priority="602" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH37">
+    <cfRule type="cellIs" dxfId="4" priority="607" operator="lessThanOrEqual">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="4" priority="472" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH8">
+    <cfRule type="cellIs" dxfId="4" priority="477" operator="lessThanOrEqual">
       <formula>J8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9">
-    <cfRule type="cellIs" dxfId="4" priority="427" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AH9">
+    <cfRule type="cellIs" dxfId="4" priority="482" operator="lessThanOrEqual">
       <formula>J9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE10">
-    <cfRule type="cellIs" dxfId="1" priority="491" operator="equal">
+  <conditionalFormatting sqref="AJ10">
+    <cfRule type="cellIs" dxfId="1" priority="621" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="492" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="622" operator="lessThan">
       <formula>H10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE11">
-    <cfRule type="cellIs" dxfId="1" priority="496" operator="equal">
+  <conditionalFormatting sqref="AJ11">
+    <cfRule type="cellIs" dxfId="1" priority="627" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="497" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="628" operator="lessThan">
       <formula>H11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE12">
-    <cfRule type="cellIs" dxfId="1" priority="501" operator="equal">
+  <conditionalFormatting sqref="AJ12">
+    <cfRule type="cellIs" dxfId="1" priority="633" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="502" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="634" operator="lessThan">
       <formula>H12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE13">
-    <cfRule type="cellIs" dxfId="1" priority="506" operator="equal">
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="cellIs" dxfId="1" priority="639" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="507" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="640" operator="lessThan">
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE14">
-    <cfRule type="cellIs" dxfId="1" priority="511" operator="equal">
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="cellIs" dxfId="1" priority="645" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="512" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="646" operator="lessThan">
       <formula>H14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE15">
-    <cfRule type="cellIs" dxfId="1" priority="516" operator="equal">
+  <conditionalFormatting sqref="AJ15">
+    <cfRule type="cellIs" dxfId="1" priority="651" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="517" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="652" operator="lessThan">
       <formula>H15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16">
-    <cfRule type="cellIs" dxfId="1" priority="521" operator="equal">
+  <conditionalFormatting sqref="AJ20">
+    <cfRule type="cellIs" dxfId="1" priority="656" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="522" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="657" operator="lessThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ22">
+    <cfRule type="cellIs" dxfId="1" priority="662" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="663" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ24">
+    <cfRule type="cellIs" dxfId="1" priority="667" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="668" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ31">
+    <cfRule type="cellIs" dxfId="1" priority="673" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="674" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ33">
+    <cfRule type="cellIs" dxfId="1" priority="679" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="680" operator="lessThan">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ35">
+    <cfRule type="cellIs" dxfId="1" priority="684" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="685" operator="lessThan">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ36">
+    <cfRule type="cellIs" dxfId="1" priority="689" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="690" operator="lessThan">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ8">
+    <cfRule type="cellIs" dxfId="1" priority="609" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="610" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="cellIs" dxfId="1" priority="615" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="616" operator="lessThan">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10">
+    <cfRule type="expression" dxfId="3" priority="623">
+      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="624" operator="greaterThan">
+      <formula>AJ10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK11">
+    <cfRule type="expression" dxfId="3" priority="629">
+      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="630" operator="greaterThan">
+      <formula>AJ11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK12">
+    <cfRule type="expression" dxfId="3" priority="635">
+      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="636" operator="greaterThan">
+      <formula>AJ12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="expression" dxfId="3" priority="641">
+      <formula>AND(AK13&gt;0,AK13&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="642" operator="greaterThan">
+      <formula>AJ13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="expression" dxfId="3" priority="647">
+      <formula>AND(AK14&gt;0,AK14&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="648" operator="greaterThan">
+      <formula>AJ14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK15">
+    <cfRule type="cellIs" dxfId="1" priority="653" operator="greaterThan">
+      <formula>AJ15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK20">
+    <cfRule type="expression" dxfId="3" priority="658">
+      <formula>AND(AK20&gt;0,AK20&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="659" operator="greaterThan">
+      <formula>AJ20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22">
+    <cfRule type="cellIs" dxfId="1" priority="664" operator="greaterThan">
+      <formula>AJ22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK24">
+    <cfRule type="expression" dxfId="3" priority="669">
+      <formula>AND(AK24&gt;0,AK24&lt;15000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="670" operator="greaterThan">
+      <formula>AJ24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK31">
+    <cfRule type="expression" dxfId="3" priority="675">
+      <formula>AND(AK31&gt;0,AK31&lt;5)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="676" operator="greaterThan">
+      <formula>AJ31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK33">
+    <cfRule type="cellIs" dxfId="1" priority="681" operator="greaterThan">
+      <formula>AJ33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK35">
+    <cfRule type="cellIs" dxfId="1" priority="686" operator="greaterThan">
+      <formula>AJ35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK36">
+    <cfRule type="expression" dxfId="3" priority="691">
+      <formula>AND(AK36&gt;0,AK36&lt;3000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="692" operator="greaterThan">
+      <formula>AJ36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK8">
+    <cfRule type="expression" dxfId="3" priority="611">
+      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="612" operator="greaterThan">
+      <formula>AJ8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK9">
+    <cfRule type="expression" dxfId="3" priority="617">
+      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="618" operator="greaterThan">
+      <formula>AJ9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
+      <formula>I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL11">
+    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
+      <formula>I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL12">
+    <cfRule type="cellIs" dxfId="4" priority="638" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL13">
+    <cfRule type="cellIs" dxfId="4" priority="644" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="cellIs" dxfId="4" priority="655" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL20">
+    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="cellIs" dxfId="4" priority="666" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL24">
+    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL31">
+    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL33">
+    <cfRule type="cellIs" dxfId="4" priority="683" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL35">
+    <cfRule type="cellIs" dxfId="4" priority="688" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL36">
+    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL8">
+    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL9">
+    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="cellIs" dxfId="4" priority="625" operator="lessThanOrEqual">
+      <formula>J10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM11">
+    <cfRule type="cellIs" dxfId="4" priority="631" operator="lessThanOrEqual">
+      <formula>J11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12">
+    <cfRule type="cellIs" dxfId="4" priority="637" operator="lessThanOrEqual">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="cellIs" dxfId="4" priority="643" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM14">
+    <cfRule type="cellIs" dxfId="4" priority="649" operator="lessThanOrEqual">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15">
+    <cfRule type="cellIs" dxfId="4" priority="654" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM20">
+    <cfRule type="cellIs" dxfId="4" priority="660" operator="lessThanOrEqual">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM22">
+    <cfRule type="cellIs" dxfId="4" priority="665" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM24">
+    <cfRule type="cellIs" dxfId="4" priority="671" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM31">
+    <cfRule type="cellIs" dxfId="4" priority="677" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM33">
+    <cfRule type="cellIs" dxfId="4" priority="682" operator="lessThanOrEqual">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM35">
+    <cfRule type="cellIs" dxfId="4" priority="687" operator="lessThanOrEqual">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM36">
+    <cfRule type="cellIs" dxfId="4" priority="693" operator="lessThanOrEqual">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="cellIs" dxfId="4" priority="613" operator="lessThanOrEqual">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="cellIs" dxfId="4" priority="619" operator="lessThanOrEqual">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO13">
+    <cfRule type="cellIs" dxfId="1" priority="700" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="701" operator="lessThan">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO15">
+    <cfRule type="cellIs" dxfId="1" priority="706" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="707" operator="lessThan">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO17">
+    <cfRule type="cellIs" dxfId="1" priority="712" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="713" operator="lessThan">
+      <formula>H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO22">
+    <cfRule type="cellIs" dxfId="1" priority="717" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="718" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO23">
+    <cfRule type="cellIs" dxfId="1" priority="723" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="724" operator="lessThan">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO24">
+    <cfRule type="cellIs" dxfId="1" priority="729" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="730" operator="lessThan">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO25">
+    <cfRule type="cellIs" dxfId="1" priority="735" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="736" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO27">
+    <cfRule type="cellIs" dxfId="1" priority="741" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="742" operator="lessThan">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO31">
+    <cfRule type="cellIs" dxfId="1" priority="747" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="748" operator="lessThan">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO7">
+    <cfRule type="cellIs" dxfId="1" priority="695" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="696" operator="lessThan">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP13">
+    <cfRule type="expression" dxfId="3" priority="702">
+      <formula>AND(AP13&gt;0,AP13&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="703" operator="greaterThan">
+      <formula>AO13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP15">
+    <cfRule type="expression" dxfId="3" priority="708">
+      <formula>AND(AP15&gt;0,AP15&lt;25)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="709" operator="greaterThan">
+      <formula>AO15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP17">
+    <cfRule type="cellIs" dxfId="1" priority="714" operator="greaterThan">
+      <formula>AO17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP22">
+    <cfRule type="expression" dxfId="3" priority="719">
+      <formula>AND(AP22&gt;0,AP22&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="720" operator="greaterThan">
+      <formula>AO22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP23">
+    <cfRule type="expression" dxfId="3" priority="725">
+      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="726" operator="greaterThan">
+      <formula>AO23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP24">
+    <cfRule type="expression" dxfId="3" priority="731">
+      <formula>AND(AP24&gt;0,AP24&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="732" operator="greaterThan">
+      <formula>AO24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP25">
+    <cfRule type="expression" dxfId="3" priority="737">
+      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="738" operator="greaterThan">
+      <formula>AO25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP27">
+    <cfRule type="expression" dxfId="3" priority="743">
+      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="744" operator="greaterThan">
+      <formula>AO27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP31">
+    <cfRule type="expression" dxfId="3" priority="749">
+      <formula>AND(AP31&gt;0,AP31&lt;18)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="750" operator="greaterThan">
+      <formula>AO31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP7">
+    <cfRule type="cellIs" dxfId="1" priority="697" operator="greaterThan">
+      <formula>AO7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ13">
+    <cfRule type="cellIs" dxfId="4" priority="705" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ15">
+    <cfRule type="cellIs" dxfId="4" priority="711" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ17">
+    <cfRule type="cellIs" dxfId="4" priority="716" operator="lessThanOrEqual">
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ22">
+    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="4" priority="728" operator="lessThanOrEqual">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="4" priority="746" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="4" priority="752" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ7">
+    <cfRule type="cellIs" dxfId="4" priority="699" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR13">
+    <cfRule type="cellIs" dxfId="4" priority="704" operator="lessThanOrEqual">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="cellIs" dxfId="4" priority="710" operator="lessThanOrEqual">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17">
+    <cfRule type="cellIs" dxfId="4" priority="715" operator="lessThanOrEqual">
+      <formula>J17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR22">
+    <cfRule type="cellIs" dxfId="4" priority="721" operator="lessThanOrEqual">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR23">
+    <cfRule type="cellIs" dxfId="4" priority="727" operator="lessThanOrEqual">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR24">
+    <cfRule type="cellIs" dxfId="4" priority="733" operator="lessThanOrEqual">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR25">
+    <cfRule type="cellIs" dxfId="4" priority="739" operator="lessThanOrEqual">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR27">
+    <cfRule type="cellIs" dxfId="4" priority="745" operator="lessThanOrEqual">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR31">
+    <cfRule type="cellIs" dxfId="4" priority="751" operator="lessThanOrEqual">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR7">
+    <cfRule type="cellIs" dxfId="4" priority="698" operator="lessThanOrEqual">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT16">
+    <cfRule type="cellIs" dxfId="1" priority="759" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="760" operator="lessThan">
       <formula>H16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE17">
-    <cfRule type="cellIs" dxfId="1" priority="526" operator="equal">
+  <conditionalFormatting sqref="AT34">
+    <cfRule type="cellIs" dxfId="1" priority="764" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="527" operator="lessThan">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE20">
-    <cfRule type="cellIs" dxfId="1" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="765" operator="lessThan">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT7">
+    <cfRule type="cellIs" dxfId="1" priority="753" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="532" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE21">
-    <cfRule type="cellIs" dxfId="1" priority="536" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="537" operator="lessThan">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE22">
-    <cfRule type="cellIs" dxfId="1" priority="541" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="542" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE23">
-    <cfRule type="cellIs" dxfId="1" priority="546" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="547" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE24">
-    <cfRule type="cellIs" dxfId="1" priority="551" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="552" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE25">
-    <cfRule type="cellIs" dxfId="1" priority="556" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="557" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE26">
-    <cfRule type="cellIs" dxfId="1" priority="561" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="562" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE27">
-    <cfRule type="cellIs" dxfId="1" priority="566" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="567" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE28">
-    <cfRule type="cellIs" dxfId="1" priority="571" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="572" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE30">
-    <cfRule type="cellIs" dxfId="1" priority="576" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="577" operator="lessThan">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="cellIs" dxfId="1" priority="581" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="582" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
-    <cfRule type="cellIs" dxfId="1" priority="586" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="587" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
-    <cfRule type="cellIs" dxfId="1" priority="591" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="592" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE34">
-    <cfRule type="cellIs" dxfId="1" priority="596" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="597" operator="lessThan">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE35">
-    <cfRule type="cellIs" dxfId="1" priority="601" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="602" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE36">
-    <cfRule type="cellIs" dxfId="1" priority="606" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="607" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE37">
-    <cfRule type="cellIs" dxfId="1" priority="611" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="612" operator="lessThan">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE7">
-    <cfRule type="cellIs" dxfId="1" priority="476" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="477" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="754" operator="lessThan">
       <formula>H7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="cellIs" dxfId="1" priority="481" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="482" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE9">
-    <cfRule type="cellIs" dxfId="1" priority="486" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="487" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF10">
-    <cfRule type="cellIs" dxfId="1" priority="493" operator="greaterThan">
-      <formula>AE10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF11">
-    <cfRule type="cellIs" dxfId="1" priority="498" operator="greaterThan">
-      <formula>AE11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF12">
-    <cfRule type="cellIs" dxfId="1" priority="503" operator="greaterThan">
-      <formula>AE12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF13">
-    <cfRule type="cellIs" dxfId="1" priority="508" operator="greaterThan">
-      <formula>AE13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF14">
-    <cfRule type="cellIs" dxfId="1" priority="513" operator="greaterThan">
-      <formula>AE14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF15">
-    <cfRule type="cellIs" dxfId="1" priority="518" operator="greaterThan">
-      <formula>AE15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF16">
-    <cfRule type="cellIs" dxfId="1" priority="523" operator="greaterThan">
-      <formula>AE16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF17">
-    <cfRule type="cellIs" dxfId="1" priority="528" operator="greaterThan">
-      <formula>AE17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF20">
-    <cfRule type="cellIs" dxfId="1" priority="533" operator="greaterThan">
-      <formula>AE20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF21">
-    <cfRule type="cellIs" dxfId="1" priority="538" operator="greaterThan">
-      <formula>AE21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF22">
-    <cfRule type="cellIs" dxfId="1" priority="543" operator="greaterThan">
-      <formula>AE22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF23">
-    <cfRule type="cellIs" dxfId="1" priority="548" operator="greaterThan">
-      <formula>AE23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="cellIs" dxfId="1" priority="553" operator="greaterThan">
-      <formula>AE24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF25">
-    <cfRule type="cellIs" dxfId="1" priority="558" operator="greaterThan">
-      <formula>AE25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF26">
-    <cfRule type="cellIs" dxfId="1" priority="563" operator="greaterThan">
-      <formula>AE26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF27">
-    <cfRule type="cellIs" dxfId="1" priority="568" operator="greaterThan">
-      <formula>AE27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF28">
-    <cfRule type="cellIs" dxfId="1" priority="573" operator="greaterThan">
-      <formula>AE28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF30">
-    <cfRule type="cellIs" dxfId="1" priority="578" operator="greaterThan">
-      <formula>AE30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF31">
-    <cfRule type="cellIs" dxfId="1" priority="583" operator="greaterThan">
-      <formula>AE31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF32">
-    <cfRule type="cellIs" dxfId="1" priority="588" operator="greaterThan">
-      <formula>AE32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF33">
-    <cfRule type="cellIs" dxfId="1" priority="593" operator="greaterThan">
-      <formula>AE33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF34">
-    <cfRule type="cellIs" dxfId="1" priority="598" operator="greaterThan">
-      <formula>AE34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF35">
-    <cfRule type="cellIs" dxfId="1" priority="603" operator="greaterThan">
-      <formula>AE35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF36">
-    <cfRule type="cellIs" dxfId="1" priority="608" operator="greaterThan">
-      <formula>AE36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF37">
-    <cfRule type="cellIs" dxfId="1" priority="613" operator="greaterThan">
-      <formula>AE37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF7">
-    <cfRule type="cellIs" dxfId="1" priority="478" operator="greaterThan">
-      <formula>AE7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="cellIs" dxfId="1" priority="483" operator="greaterThan">
-      <formula>AE8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF9">
-    <cfRule type="cellIs" dxfId="1" priority="488" operator="greaterThan">
-      <formula>AE9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="4" priority="495" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG11">
-    <cfRule type="cellIs" dxfId="4" priority="500" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
-    <cfRule type="cellIs" dxfId="4" priority="505" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
-    <cfRule type="cellIs" dxfId="4" priority="510" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG14">
-    <cfRule type="cellIs" dxfId="4" priority="515" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG15">
-    <cfRule type="cellIs" dxfId="4" priority="520" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG16">
-    <cfRule type="cellIs" dxfId="4" priority="525" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AU16">
+    <cfRule type="cellIs" dxfId="1" priority="761" operator="greaterThan">
+      <formula>AT16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU34">
+    <cfRule type="cellIs" dxfId="1" priority="766" operator="greaterThan">
+      <formula>AT34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU7">
+    <cfRule type="expression" dxfId="3" priority="755">
+      <formula>AND(AU7&gt;0,AU7&lt;1800)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="756" operator="greaterThan">
+      <formula>AT7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV16">
+    <cfRule type="cellIs" dxfId="4" priority="763" operator="lessThanOrEqual">
       <formula>I16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG17">
-    <cfRule type="cellIs" dxfId="4" priority="530" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG20">
-    <cfRule type="cellIs" dxfId="4" priority="535" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="cellIs" dxfId="4" priority="540" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG22">
-    <cfRule type="cellIs" dxfId="4" priority="545" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="cellIs" dxfId="4" priority="550" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="cellIs" dxfId="4" priority="555" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG25">
-    <cfRule type="cellIs" dxfId="4" priority="560" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG26">
-    <cfRule type="cellIs" dxfId="4" priority="565" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG27">
-    <cfRule type="cellIs" dxfId="4" priority="570" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG28">
-    <cfRule type="cellIs" dxfId="4" priority="575" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG30">
-    <cfRule type="cellIs" dxfId="4" priority="580" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="cellIs" dxfId="4" priority="585" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG32">
-    <cfRule type="cellIs" dxfId="4" priority="590" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
-    <cfRule type="cellIs" dxfId="4" priority="595" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG34">
-    <cfRule type="cellIs" dxfId="4" priority="600" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV34">
+    <cfRule type="cellIs" dxfId="4" priority="768" operator="lessThanOrEqual">
       <formula>I34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG35">
-    <cfRule type="cellIs" dxfId="4" priority="605" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG36">
-    <cfRule type="cellIs" dxfId="4" priority="610" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG37">
-    <cfRule type="cellIs" dxfId="4" priority="615" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="cellIs" dxfId="4" priority="480" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AV7">
+    <cfRule type="cellIs" dxfId="4" priority="758" operator="lessThanOrEqual">
       <formula>I7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="4" priority="485" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG9">
-    <cfRule type="cellIs" dxfId="4" priority="490" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
-    <cfRule type="cellIs" dxfId="4" priority="494" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="4" priority="499" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="4" priority="504" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH13">
-    <cfRule type="cellIs" dxfId="4" priority="509" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="cellIs" dxfId="4" priority="514" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15">
-    <cfRule type="cellIs" dxfId="4" priority="519" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH16">
-    <cfRule type="cellIs" dxfId="4" priority="524" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW16">
+    <cfRule type="cellIs" dxfId="4" priority="762" operator="lessThanOrEqual">
       <formula>J16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH17">
-    <cfRule type="cellIs" dxfId="4" priority="529" operator="lessThanOrEqual">
-      <formula>J17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20">
-    <cfRule type="cellIs" dxfId="4" priority="534" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH21">
-    <cfRule type="cellIs" dxfId="4" priority="539" operator="lessThanOrEqual">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
-    <cfRule type="cellIs" dxfId="4" priority="544" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="4" priority="549" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH24">
-    <cfRule type="cellIs" dxfId="4" priority="554" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="4" priority="559" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH26">
-    <cfRule type="cellIs" dxfId="4" priority="564" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="4" priority="569" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH28">
-    <cfRule type="cellIs" dxfId="4" priority="574" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH30">
-    <cfRule type="cellIs" dxfId="4" priority="579" operator="lessThanOrEqual">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH31">
-    <cfRule type="cellIs" dxfId="4" priority="584" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH32">
-    <cfRule type="cellIs" dxfId="4" priority="589" operator="lessThanOrEqual">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH33">
-    <cfRule type="cellIs" dxfId="4" priority="594" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH34">
-    <cfRule type="cellIs" dxfId="4" priority="599" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW34">
+    <cfRule type="cellIs" dxfId="4" priority="767" operator="lessThanOrEqual">
       <formula>J34</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH35">
-    <cfRule type="cellIs" dxfId="4" priority="604" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH36">
-    <cfRule type="cellIs" dxfId="4" priority="609" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH37">
-    <cfRule type="cellIs" dxfId="4" priority="614" operator="lessThanOrEqual">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="4" priority="479" operator="lessThanOrEqual">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH8">
-    <cfRule type="cellIs" dxfId="4" priority="484" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH9">
-    <cfRule type="cellIs" dxfId="4" priority="489" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ10">
-    <cfRule type="cellIs" dxfId="1" priority="628" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="629" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ11">
-    <cfRule type="cellIs" dxfId="1" priority="634" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="635" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ12">
-    <cfRule type="cellIs" dxfId="1" priority="640" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="641" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ13">
-    <cfRule type="cellIs" dxfId="1" priority="646" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="647" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ14">
-    <cfRule type="cellIs" dxfId="1" priority="652" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="653" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ15">
-    <cfRule type="cellIs" dxfId="1" priority="658" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="659" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ20">
-    <cfRule type="cellIs" dxfId="1" priority="663" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="664" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="1" priority="669" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="670" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ24">
-    <cfRule type="cellIs" dxfId="1" priority="674" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="675" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
-    <cfRule type="cellIs" dxfId="1" priority="680" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="681" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ33">
-    <cfRule type="cellIs" dxfId="1" priority="686" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="687" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ35">
-    <cfRule type="cellIs" dxfId="1" priority="691" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="692" operator="lessThan">
-      <formula>H35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ36">
-    <cfRule type="cellIs" dxfId="1" priority="696" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="697" operator="lessThan">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ8">
-    <cfRule type="cellIs" dxfId="1" priority="616" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="617" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ9">
-    <cfRule type="cellIs" dxfId="1" priority="622" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="623" operator="lessThan">
-      <formula>H9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK10">
-    <cfRule type="expression" dxfId="3" priority="630">
-      <formula>AND(AK10&gt;0,AK10&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="631" operator="greaterThan">
-      <formula>AJ10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK11">
-    <cfRule type="expression" dxfId="3" priority="636">
-      <formula>AND(AK11&gt;0,AK11&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="637" operator="greaterThan">
-      <formula>AJ11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK12">
-    <cfRule type="expression" dxfId="3" priority="642">
-      <formula>AND(AK12&gt;0,AK12&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="643" operator="greaterThan">
-      <formula>AJ12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK13">
-    <cfRule type="expression" dxfId="3" priority="648">
-      <formula>AND(AK13&gt;0,AK13&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="649" operator="greaterThan">
-      <formula>AJ13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="expression" dxfId="3" priority="654">
-      <formula>AND(AK14&gt;0,AK14&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="655" operator="greaterThan">
-      <formula>AJ14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK15">
-    <cfRule type="cellIs" dxfId="1" priority="660" operator="greaterThan">
-      <formula>AJ15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK20">
-    <cfRule type="expression" dxfId="3" priority="665">
-      <formula>AND(AK20&gt;0,AK20&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="666" operator="greaterThan">
-      <formula>AJ20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK22">
-    <cfRule type="cellIs" dxfId="1" priority="671" operator="greaterThan">
-      <formula>AJ22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK24">
-    <cfRule type="expression" dxfId="3" priority="676">
-      <formula>AND(AK24&gt;0,AK24&lt;15000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="677" operator="greaterThan">
-      <formula>AJ24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK31">
-    <cfRule type="expression" dxfId="3" priority="682">
-      <formula>AND(AK31&gt;0,AK31&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="683" operator="greaterThan">
-      <formula>AJ31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK33">
-    <cfRule type="cellIs" dxfId="1" priority="688" operator="greaterThan">
-      <formula>AJ33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK35">
-    <cfRule type="cellIs" dxfId="1" priority="693" operator="greaterThan">
-      <formula>AJ35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK36">
-    <cfRule type="expression" dxfId="3" priority="698">
-      <formula>AND(AK36&gt;0,AK36&lt;3000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="699" operator="greaterThan">
-      <formula>AJ36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8">
-    <cfRule type="expression" dxfId="3" priority="618">
-      <formula>AND(AK8&gt;0,AK8&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="619" operator="greaterThan">
-      <formula>AJ8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="3" priority="624">
-      <formula>AND(AK9&gt;0,AK9&lt;10)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="625" operator="greaterThan">
-      <formula>AJ9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="cellIs" dxfId="4" priority="633" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL11">
-    <cfRule type="cellIs" dxfId="4" priority="639" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL12">
-    <cfRule type="cellIs" dxfId="4" priority="645" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL13">
-    <cfRule type="cellIs" dxfId="4" priority="651" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="cellIs" dxfId="4" priority="657" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="cellIs" dxfId="4" priority="662" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL20">
-    <cfRule type="cellIs" dxfId="4" priority="668" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL22">
-    <cfRule type="cellIs" dxfId="4" priority="673" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL24">
-    <cfRule type="cellIs" dxfId="4" priority="679" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="4" priority="685" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
-    <cfRule type="cellIs" dxfId="4" priority="690" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="4" priority="695" operator="lessThanOrEqual">
-      <formula>I35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL36">
-    <cfRule type="cellIs" dxfId="4" priority="701" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8">
-    <cfRule type="cellIs" dxfId="4" priority="621" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL9">
-    <cfRule type="cellIs" dxfId="4" priority="627" operator="lessThanOrEqual">
-      <formula>I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="cellIs" dxfId="4" priority="632" operator="lessThanOrEqual">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM11">
-    <cfRule type="cellIs" dxfId="4" priority="638" operator="lessThanOrEqual">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12">
-    <cfRule type="cellIs" dxfId="4" priority="644" operator="lessThanOrEqual">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM13">
-    <cfRule type="cellIs" dxfId="4" priority="650" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM14">
-    <cfRule type="cellIs" dxfId="4" priority="656" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM15">
-    <cfRule type="cellIs" dxfId="4" priority="661" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM20">
-    <cfRule type="cellIs" dxfId="4" priority="667" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM22">
-    <cfRule type="cellIs" dxfId="4" priority="672" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM24">
-    <cfRule type="cellIs" dxfId="4" priority="678" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM31">
-    <cfRule type="cellIs" dxfId="4" priority="684" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM33">
-    <cfRule type="cellIs" dxfId="4" priority="689" operator="lessThanOrEqual">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM35">
-    <cfRule type="cellIs" dxfId="4" priority="694" operator="lessThanOrEqual">
-      <formula>J35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM36">
-    <cfRule type="cellIs" dxfId="4" priority="700" operator="lessThanOrEqual">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM8">
-    <cfRule type="cellIs" dxfId="4" priority="620" operator="lessThanOrEqual">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="cellIs" dxfId="4" priority="626" operator="lessThanOrEqual">
-      <formula>J9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO13">
-    <cfRule type="cellIs" dxfId="1" priority="707" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="708" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO15">
-    <cfRule type="cellIs" dxfId="1" priority="713" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="714" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO17">
-    <cfRule type="cellIs" dxfId="1" priority="719" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="720" operator="lessThan">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO22">
-    <cfRule type="cellIs" dxfId="1" priority="724" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="725" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="1" priority="730" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="731" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24">
-    <cfRule type="cellIs" dxfId="1" priority="736" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="737" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="1" priority="742" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="743" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="1" priority="748" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="749" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="1" priority="754" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="755" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO7">
-    <cfRule type="cellIs" dxfId="1" priority="702" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="703" operator="lessThan">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP13">
-    <cfRule type="expression" dxfId="3" priority="709">
-      <formula>AND(AP13&gt;0,AP13&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="710" operator="greaterThan">
-      <formula>AO13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP15">
-    <cfRule type="expression" dxfId="3" priority="715">
-      <formula>AND(AP15&gt;0,AP15&lt;25)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="716" operator="greaterThan">
-      <formula>AO15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP17">
-    <cfRule type="cellIs" dxfId="1" priority="721" operator="greaterThan">
-      <formula>AO17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP22">
-    <cfRule type="expression" dxfId="3" priority="726">
-      <formula>AND(AP22&gt;0,AP22&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="727" operator="greaterThan">
-      <formula>AO22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP23">
-    <cfRule type="expression" dxfId="3" priority="732">
-      <formula>AND(AP23&gt;0,AP23&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="733" operator="greaterThan">
-      <formula>AO23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="3" priority="738">
-      <formula>AND(AP24&gt;0,AP24&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="739" operator="greaterThan">
-      <formula>AO24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
-    <cfRule type="expression" dxfId="3" priority="744">
-      <formula>AND(AP25&gt;0,AP25&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="745" operator="greaterThan">
-      <formula>AO25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP27">
-    <cfRule type="expression" dxfId="3" priority="750">
-      <formula>AND(AP27&gt;0,AP27&lt;1000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="751" operator="greaterThan">
-      <formula>AO27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP31">
-    <cfRule type="expression" dxfId="3" priority="756">
-      <formula>AND(AP31&gt;0,AP31&lt;18)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="757" operator="greaterThan">
-      <formula>AO31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP7">
-    <cfRule type="cellIs" dxfId="1" priority="704" operator="greaterThan">
-      <formula>AO7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ13">
-    <cfRule type="cellIs" dxfId="4" priority="712" operator="lessThanOrEqual">
-      <formula>I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ15">
-    <cfRule type="cellIs" dxfId="4" priority="718" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ17">
-    <cfRule type="cellIs" dxfId="4" priority="723" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ22">
-    <cfRule type="cellIs" dxfId="4" priority="729" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ23">
-    <cfRule type="cellIs" dxfId="4" priority="735" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ24">
-    <cfRule type="cellIs" dxfId="4" priority="741" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ25">
-    <cfRule type="cellIs" dxfId="4" priority="747" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ27">
-    <cfRule type="cellIs" dxfId="4" priority="753" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ31">
-    <cfRule type="cellIs" dxfId="4" priority="759" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7">
-    <cfRule type="cellIs" dxfId="4" priority="706" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR13">
-    <cfRule type="cellIs" dxfId="4" priority="711" operator="lessThanOrEqual">
-      <formula>J13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR15">
-    <cfRule type="cellIs" dxfId="4" priority="717" operator="lessThanOrEqual">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR17">
-    <cfRule type="cellIs" dxfId="4" priority="722" operator="lessThanOrEqual">
-      <formula>J17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR22">
-    <cfRule type="cellIs" dxfId="4" priority="728" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR23">
-    <cfRule type="cellIs" dxfId="4" priority="734" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR24">
-    <cfRule type="cellIs" dxfId="4" priority="740" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR25">
-    <cfRule type="cellIs" dxfId="4" priority="746" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR27">
-    <cfRule type="cellIs" dxfId="4" priority="752" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR31">
-    <cfRule type="cellIs" dxfId="4" priority="758" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR7">
-    <cfRule type="cellIs" dxfId="4" priority="705" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="AW7">
+    <cfRule type="cellIs" dxfId="4" priority="757" operator="lessThanOrEqual">
       <formula>J7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12307,10 +12434,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30">
-    <cfRule type="cellIs" dxfId="1" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="248" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="248" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="249" operator="lessThan">
       <formula>H30</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12499,14 +12626,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="cellIs" dxfId="1" priority="244" operator="greaterThan">
+    <cfRule type="expression" dxfId="3" priority="244">
+      <formula>AND(Q29&gt;0,Q29&lt;2000)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="245" operator="greaterThan">
       <formula>P29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="3" priority="249">
-      <formula>AND(Q30&gt;0,Q30&lt;2000)</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="250" operator="greaterThan">
       <formula>P30</formula>
     </cfRule>
@@ -12660,7 +12787,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29">
-    <cfRule type="cellIs" dxfId="4" priority="246" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="247" operator="lessThanOrEqual">
       <formula>I29</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12815,7 +12942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29">
-    <cfRule type="cellIs" dxfId="4" priority="245" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="246" operator="lessThanOrEqual">
       <formula>J29</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12906,123 +13033,115 @@
       <formula>H13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14">
+  <conditionalFormatting sqref="U15">
     <cfRule type="cellIs" dxfId="1" priority="330" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="331" operator="lessThan">
-      <formula>H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U15">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16">
     <cfRule type="cellIs" dxfId="1" priority="336" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="337" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U16">
-    <cfRule type="cellIs" dxfId="1" priority="342" operator="equal">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
+    <cfRule type="cellIs" dxfId="1" priority="341" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="343" operator="lessThan">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U20">
+    <cfRule type="cellIs" dxfId="2" priority="342" operator="lessThan">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
     <cfRule type="cellIs" dxfId="1" priority="347" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="348" operator="lessThan">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U22">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
     <cfRule type="cellIs" dxfId="1" priority="353" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="354" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
+      <formula>H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
     <cfRule type="cellIs" dxfId="1" priority="359" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="360" operator="lessThan">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U24">
+      <formula>H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U25">
     <cfRule type="cellIs" dxfId="1" priority="365" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="366" operator="lessThan">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U25">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26">
     <cfRule type="cellIs" dxfId="1" priority="371" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="372" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U26">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27">
     <cfRule type="cellIs" dxfId="1" priority="377" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="378" operator="lessThan">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U27">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U28">
     <cfRule type="cellIs" dxfId="1" priority="383" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="384" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U28">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31">
     <cfRule type="cellIs" dxfId="1" priority="389" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="390" operator="lessThan">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U31">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32">
     <cfRule type="cellIs" dxfId="1" priority="395" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="396" operator="lessThan">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U32">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U33">
     <cfRule type="cellIs" dxfId="1" priority="401" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="402" operator="lessThan">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U33">
-    <cfRule type="cellIs" dxfId="1" priority="407" operator="equal">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U35">
+    <cfRule type="cellIs" dxfId="1" priority="406" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="408" operator="lessThan">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U35">
-    <cfRule type="cellIs" dxfId="1" priority="412" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="413" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="407" operator="lessThan">
       <formula>H35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13082,114 +13201,106 @@
       <formula>U13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V14">
+  <conditionalFormatting sqref="V15">
     <cfRule type="expression" dxfId="3" priority="332">
-      <formula>AND(V14&gt;0,V14&lt;5)</formula>
+      <formula>AND(V15&gt;0,V15&lt;5)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="333" operator="greaterThan">
-      <formula>U14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V15">
-    <cfRule type="expression" dxfId="3" priority="338">
-      <formula>AND(V15&gt;0,V15&lt;5)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="339" operator="greaterThan">
       <formula>U15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
+    <cfRule type="cellIs" dxfId="1" priority="338" operator="greaterThan">
+      <formula>U16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
+    <cfRule type="expression" dxfId="3" priority="343">
+      <formula>AND(V20&gt;0,V20&lt;5)</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="344" operator="greaterThan">
-      <formula>U16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
+      <formula>U20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22">
     <cfRule type="expression" dxfId="3" priority="349">
-      <formula>AND(V20&gt;0,V20&lt;5)</formula>
+      <formula>AND(V22&gt;0,V22&lt;10)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="350" operator="greaterThan">
-      <formula>U20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V22">
+      <formula>U22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V23">
     <cfRule type="expression" dxfId="3" priority="355">
-      <formula>AND(V22&gt;0,V22&lt;10)</formula>
+      <formula>AND(V23&gt;0,V23&lt;30000)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="356" operator="greaterThan">
-      <formula>U22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
+      <formula>U23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V24">
     <cfRule type="expression" dxfId="3" priority="361">
-      <formula>AND(V23&gt;0,V23&lt;15000)</formula>
+      <formula>AND(V24&gt;0,V24&lt;30000)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="362" operator="greaterThan">
-      <formula>U23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V24">
+      <formula>U24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25">
     <cfRule type="expression" dxfId="3" priority="367">
-      <formula>AND(V24&gt;0,V24&lt;15000)</formula>
+      <formula>AND(V25&gt;0,V25&lt;30000)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="368" operator="greaterThan">
-      <formula>U24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V25">
+      <formula>U25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26">
     <cfRule type="expression" dxfId="3" priority="373">
-      <formula>AND(V25&gt;0,V25&lt;15000)</formula>
+      <formula>AND(V26&gt;0,V26&lt;30000)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="374" operator="greaterThan">
-      <formula>U25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V26">
+      <formula>U26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V27">
     <cfRule type="expression" dxfId="3" priority="379">
-      <formula>AND(V26&gt;0,V26&lt;15000)</formula>
+      <formula>AND(V27&gt;0,V27&lt;30000)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="380" operator="greaterThan">
-      <formula>U26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
+      <formula>U27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28">
     <cfRule type="expression" dxfId="3" priority="385">
-      <formula>AND(V27&gt;0,V27&lt;15000)</formula>
+      <formula>AND(V28&gt;0,V28&lt;3000)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="386" operator="greaterThan">
-      <formula>U27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V28">
+      <formula>U28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V31">
     <cfRule type="expression" dxfId="3" priority="391">
-      <formula>AND(V28&gt;0,V28&lt;3000)</formula>
+      <formula>AND(V31&gt;0,V31&lt;5)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="392" operator="greaterThan">
-      <formula>U28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V31">
+      <formula>U31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V32">
     <cfRule type="expression" dxfId="3" priority="397">
-      <formula>AND(V31&gt;0,V31&lt;5)</formula>
+      <formula>AND(V32&gt;0,V32&lt;5000)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="398" operator="greaterThan">
-      <formula>U31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V32">
-    <cfRule type="expression" dxfId="3" priority="403">
-      <formula>AND(V32&gt;0,V32&lt;5000)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="404" operator="greaterThan">
       <formula>U32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V33">
-    <cfRule type="cellIs" dxfId="1" priority="409" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="403" operator="greaterThan">
       <formula>U33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V35">
-    <cfRule type="cellIs" dxfId="1" priority="414" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="408" operator="greaterThan">
       <formula>U35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13234,78 +13345,73 @@
       <formula>I13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W14">
+  <conditionalFormatting sqref="W15">
     <cfRule type="cellIs" dxfId="4" priority="335" operator="lessThanOrEqual">
-      <formula>I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="4" priority="341" operator="lessThanOrEqual">
       <formula>I15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
+    <cfRule type="cellIs" dxfId="4" priority="340" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
     <cfRule type="cellIs" dxfId="4" priority="346" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W22">
     <cfRule type="cellIs" dxfId="4" priority="352" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W22">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
     <cfRule type="cellIs" dxfId="4" priority="358" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+      <formula>I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24">
     <cfRule type="cellIs" dxfId="4" priority="364" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
+      <formula>I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25">
     <cfRule type="cellIs" dxfId="4" priority="370" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W26">
     <cfRule type="cellIs" dxfId="4" priority="376" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W26">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27">
     <cfRule type="cellIs" dxfId="4" priority="382" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28">
     <cfRule type="cellIs" dxfId="4" priority="388" operator="lessThanOrEqual">
-      <formula>I27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31">
     <cfRule type="cellIs" dxfId="4" priority="394" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32">
     <cfRule type="cellIs" dxfId="4" priority="400" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="4" priority="406" operator="lessThanOrEqual">
       <formula>I32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W33">
-    <cfRule type="cellIs" dxfId="4" priority="411" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="405" operator="lessThanOrEqual">
       <formula>I33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="4" priority="416" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
       <formula>I35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13344,78 +13450,73 @@
       <formula>J13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
+  <conditionalFormatting sqref="X15">
     <cfRule type="cellIs" dxfId="4" priority="334" operator="lessThanOrEqual">
-      <formula>J14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="4" priority="340" operator="lessThanOrEqual">
       <formula>J15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
+    <cfRule type="cellIs" dxfId="4" priority="339" operator="lessThanOrEqual">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X20">
     <cfRule type="cellIs" dxfId="4" priority="345" operator="lessThanOrEqual">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X20">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X22">
     <cfRule type="cellIs" dxfId="4" priority="351" operator="lessThanOrEqual">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23">
     <cfRule type="cellIs" dxfId="4" priority="357" operator="lessThanOrEqual">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X23">
+      <formula>J23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
     <cfRule type="cellIs" dxfId="4" priority="363" operator="lessThanOrEqual">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
+      <formula>J24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25">
     <cfRule type="cellIs" dxfId="4" priority="369" operator="lessThanOrEqual">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26">
     <cfRule type="cellIs" dxfId="4" priority="375" operator="lessThanOrEqual">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X26">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27">
     <cfRule type="cellIs" dxfId="4" priority="381" operator="lessThanOrEqual">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
     <cfRule type="cellIs" dxfId="4" priority="387" operator="lessThanOrEqual">
-      <formula>J27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X28">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
     <cfRule type="cellIs" dxfId="4" priority="393" operator="lessThanOrEqual">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X31">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="4" priority="399" operator="lessThanOrEqual">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="4" priority="405" operator="lessThanOrEqual">
       <formula>J32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33">
-    <cfRule type="cellIs" dxfId="4" priority="410" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="404" operator="lessThanOrEqual">
       <formula>J33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="4" priority="415" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="409" operator="lessThanOrEqual">
       <formula>J35</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13434,83 +13535,83 @@
       <formula>J9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z10">
+  <conditionalFormatting sqref="Z11">
+    <cfRule type="cellIs" dxfId="1" priority="423" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="424" operator="lessThan">
+      <formula>H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z12">
     <cfRule type="cellIs" dxfId="1" priority="429" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="430" operator="lessThan">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z13">
     <cfRule type="cellIs" dxfId="1" priority="435" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="436" operator="lessThan">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z12">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15">
     <cfRule type="cellIs" dxfId="1" priority="441" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="442" operator="lessThan">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z13">
-    <cfRule type="cellIs" dxfId="1" priority="447" operator="equal">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z22">
+    <cfRule type="cellIs" dxfId="1" priority="446" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="448" operator="lessThan">
-      <formula>H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z15">
-    <cfRule type="cellIs" dxfId="1" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="447" operator="lessThan">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25">
+    <cfRule type="cellIs" dxfId="1" priority="452" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="454" operator="lessThan">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z22">
+    <cfRule type="cellIs" dxfId="2" priority="453" operator="lessThan">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27">
     <cfRule type="cellIs" dxfId="1" priority="458" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="459" operator="lessThan">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z25">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z29">
     <cfRule type="cellIs" dxfId="1" priority="464" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="465" operator="lessThan">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z27">
-    <cfRule type="cellIs" dxfId="1" priority="470" operator="equal">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8">
+    <cfRule type="cellIs" dxfId="1" priority="411" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="471" operator="lessThan">
-      <formula>H27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8">
+    <cfRule type="cellIs" dxfId="2" priority="412" operator="lessThan">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z9">
     <cfRule type="cellIs" dxfId="1" priority="417" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="418" operator="lessThan">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9">
-    <cfRule type="cellIs" dxfId="1" priority="423" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="424" operator="lessThan">
       <formula>H9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13537,153 +13638,152 @@
     <hyperlink ref="G10" r:id="rId20"/>
     <hyperlink ref="T10" r:id="rId21"/>
     <hyperlink ref="Y10" r:id="rId22"/>
-    <hyperlink ref="AD10" r:id="rId23"/>
-    <hyperlink ref="AI10" r:id="rId24"/>
-    <hyperlink ref="AN10" r:id="rId25"/>
-    <hyperlink ref="G11" r:id="rId26"/>
-    <hyperlink ref="T11" r:id="rId27"/>
-    <hyperlink ref="Y11" r:id="rId28"/>
-    <hyperlink ref="AD11" r:id="rId29"/>
-    <hyperlink ref="AI11" r:id="rId30"/>
-    <hyperlink ref="AN11" r:id="rId31"/>
-    <hyperlink ref="G12" r:id="rId32"/>
-    <hyperlink ref="T12" r:id="rId33"/>
-    <hyperlink ref="Y12" r:id="rId34"/>
-    <hyperlink ref="AD12" r:id="rId35"/>
-    <hyperlink ref="AI12" r:id="rId36"/>
-    <hyperlink ref="AN12" r:id="rId37"/>
-    <hyperlink ref="G13" r:id="rId38"/>
-    <hyperlink ref="T13" r:id="rId39"/>
-    <hyperlink ref="Y13" r:id="rId40"/>
-    <hyperlink ref="AD13" r:id="rId41"/>
-    <hyperlink ref="AI13" r:id="rId42"/>
-    <hyperlink ref="AN13" r:id="rId43"/>
-    <hyperlink ref="AS13" r:id="rId44"/>
-    <hyperlink ref="G14" r:id="rId45"/>
-    <hyperlink ref="T14" r:id="rId46"/>
-    <hyperlink ref="Y14" r:id="rId47"/>
-    <hyperlink ref="AI14" r:id="rId48"/>
-    <hyperlink ref="AN14" r:id="rId49"/>
-    <hyperlink ref="G15" r:id="rId50"/>
-    <hyperlink ref="T15" r:id="rId51"/>
-    <hyperlink ref="Y15" r:id="rId52"/>
-    <hyperlink ref="AD15" r:id="rId53"/>
-    <hyperlink ref="AI15" r:id="rId54"/>
-    <hyperlink ref="AN15" r:id="rId55"/>
-    <hyperlink ref="AS15" r:id="rId56"/>
-    <hyperlink ref="G16" r:id="rId57"/>
-    <hyperlink ref="T16" r:id="rId58"/>
-    <hyperlink ref="Y16" r:id="rId59"/>
-    <hyperlink ref="AI16" r:id="rId60"/>
-    <hyperlink ref="AN16" r:id="rId61"/>
-    <hyperlink ref="AX16" r:id="rId62"/>
-    <hyperlink ref="G17" r:id="rId63"/>
-    <hyperlink ref="T17" r:id="rId64"/>
-    <hyperlink ref="AI17" r:id="rId65"/>
-    <hyperlink ref="AS17" r:id="rId66"/>
-    <hyperlink ref="G18" r:id="rId67"/>
-    <hyperlink ref="T18" r:id="rId68"/>
-    <hyperlink ref="G19" r:id="rId69"/>
-    <hyperlink ref="T19" r:id="rId70"/>
-    <hyperlink ref="G20" r:id="rId71"/>
-    <hyperlink ref="T20" r:id="rId72"/>
-    <hyperlink ref="Y20" r:id="rId73"/>
-    <hyperlink ref="AI20" r:id="rId74"/>
-    <hyperlink ref="AN20" r:id="rId75"/>
-    <hyperlink ref="G21" r:id="rId76"/>
-    <hyperlink ref="T21" r:id="rId77"/>
-    <hyperlink ref="AI21" r:id="rId78"/>
-    <hyperlink ref="G22" r:id="rId79"/>
-    <hyperlink ref="T22" r:id="rId80"/>
-    <hyperlink ref="Y22" r:id="rId81"/>
-    <hyperlink ref="AD22" r:id="rId82"/>
-    <hyperlink ref="AI22" r:id="rId83"/>
-    <hyperlink ref="AN22" r:id="rId84"/>
-    <hyperlink ref="AS22" r:id="rId85"/>
-    <hyperlink ref="G23" r:id="rId86"/>
-    <hyperlink ref="T23" r:id="rId87"/>
-    <hyperlink ref="Y23" r:id="rId88"/>
-    <hyperlink ref="AI23" r:id="rId89"/>
-    <hyperlink ref="AN23" r:id="rId90"/>
-    <hyperlink ref="AS23" r:id="rId91"/>
-    <hyperlink ref="G24" r:id="rId92"/>
-    <hyperlink ref="T24" r:id="rId93"/>
-    <hyperlink ref="Y24" r:id="rId94"/>
-    <hyperlink ref="AI24" r:id="rId95"/>
-    <hyperlink ref="AN24" r:id="rId96"/>
-    <hyperlink ref="AS24" r:id="rId97"/>
-    <hyperlink ref="G25" r:id="rId98"/>
-    <hyperlink ref="T25" r:id="rId99"/>
-    <hyperlink ref="Y25" r:id="rId100"/>
-    <hyperlink ref="AD25" r:id="rId101"/>
-    <hyperlink ref="AI25" r:id="rId102"/>
-    <hyperlink ref="AN25" r:id="rId103"/>
-    <hyperlink ref="AS25" r:id="rId104"/>
-    <hyperlink ref="G26" r:id="rId105"/>
-    <hyperlink ref="T26" r:id="rId106"/>
-    <hyperlink ref="Y26" r:id="rId107"/>
-    <hyperlink ref="AI26" r:id="rId108"/>
-    <hyperlink ref="AN26" r:id="rId109"/>
-    <hyperlink ref="G27" r:id="rId110"/>
-    <hyperlink ref="T27" r:id="rId111"/>
-    <hyperlink ref="Y27" r:id="rId112"/>
-    <hyperlink ref="AD27" r:id="rId113"/>
-    <hyperlink ref="AI27" r:id="rId114"/>
-    <hyperlink ref="AN27" r:id="rId115"/>
-    <hyperlink ref="AS27" r:id="rId116"/>
-    <hyperlink ref="G28" r:id="rId117"/>
-    <hyperlink ref="T28" r:id="rId118"/>
-    <hyperlink ref="Y28" r:id="rId119"/>
-    <hyperlink ref="AI28" r:id="rId120"/>
-    <hyperlink ref="AN28" r:id="rId121"/>
-    <hyperlink ref="G29" r:id="rId122"/>
-    <hyperlink ref="T29" r:id="rId123"/>
+    <hyperlink ref="AI10" r:id="rId23"/>
+    <hyperlink ref="AN10" r:id="rId24"/>
+    <hyperlink ref="G11" r:id="rId25"/>
+    <hyperlink ref="T11" r:id="rId26"/>
+    <hyperlink ref="Y11" r:id="rId27"/>
+    <hyperlink ref="AD11" r:id="rId28"/>
+    <hyperlink ref="AI11" r:id="rId29"/>
+    <hyperlink ref="AN11" r:id="rId30"/>
+    <hyperlink ref="G12" r:id="rId31"/>
+    <hyperlink ref="T12" r:id="rId32"/>
+    <hyperlink ref="Y12" r:id="rId33"/>
+    <hyperlink ref="AD12" r:id="rId34"/>
+    <hyperlink ref="AI12" r:id="rId35"/>
+    <hyperlink ref="AN12" r:id="rId36"/>
+    <hyperlink ref="G13" r:id="rId37"/>
+    <hyperlink ref="T13" r:id="rId38"/>
+    <hyperlink ref="Y13" r:id="rId39"/>
+    <hyperlink ref="AD13" r:id="rId40"/>
+    <hyperlink ref="AI13" r:id="rId41"/>
+    <hyperlink ref="AN13" r:id="rId42"/>
+    <hyperlink ref="AS13" r:id="rId43"/>
+    <hyperlink ref="G14" r:id="rId44"/>
+    <hyperlink ref="T14" r:id="rId45"/>
+    <hyperlink ref="AI14" r:id="rId46"/>
+    <hyperlink ref="AN14" r:id="rId47"/>
+    <hyperlink ref="G15" r:id="rId48"/>
+    <hyperlink ref="T15" r:id="rId49"/>
+    <hyperlink ref="Y15" r:id="rId50"/>
+    <hyperlink ref="AD15" r:id="rId51"/>
+    <hyperlink ref="AI15" r:id="rId52"/>
+    <hyperlink ref="AN15" r:id="rId53"/>
+    <hyperlink ref="AS15" r:id="rId54"/>
+    <hyperlink ref="G16" r:id="rId55"/>
+    <hyperlink ref="T16" r:id="rId56"/>
+    <hyperlink ref="Y16" r:id="rId57"/>
+    <hyperlink ref="AI16" r:id="rId58"/>
+    <hyperlink ref="AN16" r:id="rId59"/>
+    <hyperlink ref="AX16" r:id="rId60"/>
+    <hyperlink ref="G17" r:id="rId61"/>
+    <hyperlink ref="T17" r:id="rId62"/>
+    <hyperlink ref="AI17" r:id="rId63"/>
+    <hyperlink ref="AS17" r:id="rId64"/>
+    <hyperlink ref="G18" r:id="rId65"/>
+    <hyperlink ref="T18" r:id="rId66"/>
+    <hyperlink ref="G19" r:id="rId67"/>
+    <hyperlink ref="T19" r:id="rId68"/>
+    <hyperlink ref="G20" r:id="rId69"/>
+    <hyperlink ref="T20" r:id="rId70"/>
+    <hyperlink ref="Y20" r:id="rId71"/>
+    <hyperlink ref="AI20" r:id="rId72"/>
+    <hyperlink ref="AN20" r:id="rId73"/>
+    <hyperlink ref="G21" r:id="rId74"/>
+    <hyperlink ref="T21" r:id="rId75"/>
+    <hyperlink ref="AI21" r:id="rId76"/>
+    <hyperlink ref="G22" r:id="rId77"/>
+    <hyperlink ref="T22" r:id="rId78"/>
+    <hyperlink ref="Y22" r:id="rId79"/>
+    <hyperlink ref="AD22" r:id="rId80"/>
+    <hyperlink ref="AI22" r:id="rId81"/>
+    <hyperlink ref="AN22" r:id="rId82"/>
+    <hyperlink ref="AS22" r:id="rId83"/>
+    <hyperlink ref="G23" r:id="rId84"/>
+    <hyperlink ref="T23" r:id="rId85"/>
+    <hyperlink ref="Y23" r:id="rId86"/>
+    <hyperlink ref="AI23" r:id="rId87"/>
+    <hyperlink ref="AN23" r:id="rId88"/>
+    <hyperlink ref="AS23" r:id="rId89"/>
+    <hyperlink ref="G24" r:id="rId90"/>
+    <hyperlink ref="T24" r:id="rId91"/>
+    <hyperlink ref="Y24" r:id="rId92"/>
+    <hyperlink ref="AI24" r:id="rId93"/>
+    <hyperlink ref="AN24" r:id="rId94"/>
+    <hyperlink ref="AS24" r:id="rId95"/>
+    <hyperlink ref="G25" r:id="rId96"/>
+    <hyperlink ref="T25" r:id="rId97"/>
+    <hyperlink ref="Y25" r:id="rId98"/>
+    <hyperlink ref="AD25" r:id="rId99"/>
+    <hyperlink ref="AI25" r:id="rId100"/>
+    <hyperlink ref="AN25" r:id="rId101"/>
+    <hyperlink ref="AS25" r:id="rId102"/>
+    <hyperlink ref="G26" r:id="rId103"/>
+    <hyperlink ref="T26" r:id="rId104"/>
+    <hyperlink ref="Y26" r:id="rId105"/>
+    <hyperlink ref="AI26" r:id="rId106"/>
+    <hyperlink ref="AN26" r:id="rId107"/>
+    <hyperlink ref="G27" r:id="rId108"/>
+    <hyperlink ref="T27" r:id="rId109"/>
+    <hyperlink ref="Y27" r:id="rId110"/>
+    <hyperlink ref="AD27" r:id="rId111"/>
+    <hyperlink ref="AI27" r:id="rId112"/>
+    <hyperlink ref="AN27" r:id="rId113"/>
+    <hyperlink ref="AS27" r:id="rId114"/>
+    <hyperlink ref="G28" r:id="rId115"/>
+    <hyperlink ref="T28" r:id="rId116"/>
+    <hyperlink ref="Y28" r:id="rId117"/>
+    <hyperlink ref="AI28" r:id="rId118"/>
+    <hyperlink ref="AN28" r:id="rId119"/>
+    <hyperlink ref="G29" r:id="rId120"/>
+    <hyperlink ref="T29" r:id="rId121"/>
+    <hyperlink ref="AD29" r:id="rId122"/>
+    <hyperlink ref="AI29" r:id="rId123"/>
     <hyperlink ref="G30" r:id="rId124"/>
     <hyperlink ref="T30" r:id="rId125"/>
-    <hyperlink ref="AI30" r:id="rId126"/>
-    <hyperlink ref="G31" r:id="rId127"/>
-    <hyperlink ref="T31" r:id="rId128"/>
-    <hyperlink ref="Y31" r:id="rId129"/>
-    <hyperlink ref="AI31" r:id="rId130"/>
-    <hyperlink ref="AN31" r:id="rId131"/>
-    <hyperlink ref="AS31" r:id="rId132"/>
-    <hyperlink ref="G32" r:id="rId133"/>
-    <hyperlink ref="T32" r:id="rId134"/>
-    <hyperlink ref="Y32" r:id="rId135"/>
-    <hyperlink ref="AI32" r:id="rId136"/>
-    <hyperlink ref="G33" r:id="rId137"/>
-    <hyperlink ref="T33" r:id="rId138"/>
-    <hyperlink ref="Y33" r:id="rId139"/>
-    <hyperlink ref="AI33" r:id="rId140"/>
-    <hyperlink ref="AN33" r:id="rId141"/>
-    <hyperlink ref="G34" r:id="rId142"/>
-    <hyperlink ref="T34" r:id="rId143"/>
-    <hyperlink ref="AI34" r:id="rId144"/>
-    <hyperlink ref="AX34" r:id="rId145"/>
-    <hyperlink ref="G35" r:id="rId146"/>
-    <hyperlink ref="T35" r:id="rId147"/>
-    <hyperlink ref="Y35" r:id="rId148"/>
-    <hyperlink ref="AI35" r:id="rId149"/>
-    <hyperlink ref="AN35" r:id="rId150"/>
-    <hyperlink ref="G36" r:id="rId151"/>
-    <hyperlink ref="T36" r:id="rId152"/>
-    <hyperlink ref="Y36" r:id="rId153"/>
-    <hyperlink ref="AI36" r:id="rId154"/>
-    <hyperlink ref="AN36" r:id="rId155"/>
-    <hyperlink ref="G37" r:id="rId156"/>
-    <hyperlink ref="T37" r:id="rId157"/>
-    <hyperlink ref="AI37" r:id="rId158"/>
-    <hyperlink ref="G38" r:id="rId159"/>
-    <hyperlink ref="K40" r:id="rId160"/>
-    <hyperlink ref="P40" r:id="rId161"/>
-    <hyperlink ref="U40" r:id="rId162"/>
-    <hyperlink ref="Z40" r:id="rId163"/>
-    <hyperlink ref="AE40" r:id="rId164"/>
-    <hyperlink ref="AJ40" r:id="rId165"/>
-    <hyperlink ref="AO40" r:id="rId166"/>
-    <hyperlink ref="AT40" r:id="rId167"/>
+    <hyperlink ref="G31" r:id="rId126"/>
+    <hyperlink ref="T31" r:id="rId127"/>
+    <hyperlink ref="Y31" r:id="rId128"/>
+    <hyperlink ref="AI31" r:id="rId129"/>
+    <hyperlink ref="AN31" r:id="rId130"/>
+    <hyperlink ref="AS31" r:id="rId131"/>
+    <hyperlink ref="G32" r:id="rId132"/>
+    <hyperlink ref="T32" r:id="rId133"/>
+    <hyperlink ref="Y32" r:id="rId134"/>
+    <hyperlink ref="AI32" r:id="rId135"/>
+    <hyperlink ref="G33" r:id="rId136"/>
+    <hyperlink ref="T33" r:id="rId137"/>
+    <hyperlink ref="Y33" r:id="rId138"/>
+    <hyperlink ref="AI33" r:id="rId139"/>
+    <hyperlink ref="AN33" r:id="rId140"/>
+    <hyperlink ref="G34" r:id="rId141"/>
+    <hyperlink ref="T34" r:id="rId142"/>
+    <hyperlink ref="AI34" r:id="rId143"/>
+    <hyperlink ref="AX34" r:id="rId144"/>
+    <hyperlink ref="G35" r:id="rId145"/>
+    <hyperlink ref="T35" r:id="rId146"/>
+    <hyperlink ref="Y35" r:id="rId147"/>
+    <hyperlink ref="AI35" r:id="rId148"/>
+    <hyperlink ref="AN35" r:id="rId149"/>
+    <hyperlink ref="G36" r:id="rId150"/>
+    <hyperlink ref="T36" r:id="rId151"/>
+    <hyperlink ref="Y36" r:id="rId152"/>
+    <hyperlink ref="AI36" r:id="rId153"/>
+    <hyperlink ref="AN36" r:id="rId154"/>
+    <hyperlink ref="G37" r:id="rId155"/>
+    <hyperlink ref="T37" r:id="rId156"/>
+    <hyperlink ref="AI37" r:id="rId157"/>
+    <hyperlink ref="G38" r:id="rId158"/>
+    <hyperlink ref="K40" r:id="rId159"/>
+    <hyperlink ref="P40" r:id="rId160"/>
+    <hyperlink ref="U40" r:id="rId161"/>
+    <hyperlink ref="Z40" r:id="rId162"/>
+    <hyperlink ref="AE40" r:id="rId163"/>
+    <hyperlink ref="AJ40" r:id="rId164"/>
+    <hyperlink ref="AO40" r:id="rId165"/>
+    <hyperlink ref="AT40" r:id="rId166"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId168"/>
+  <legacyDrawing r:id="rId167"/>
 </worksheet>
 </file>